--- a/3_Component_Results/OPA/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/OPA/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Q0</t>
   </si>
@@ -26,18 +26,6 @@
   </si>
   <si>
     <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Q5</t>
-  </si>
-  <si>
-    <t>Q6</t>
-  </si>
-  <si>
-    <t>Q7</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -440,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,308 +447,176 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2">
+        <v>2.666585772128139</v>
+      </c>
+      <c r="C2">
+        <v>-0.2360270129762616</v>
+      </c>
+      <c r="D2">
+        <v>-0.4095286534671631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B3">
+        <v>0.008327869467996907</v>
+      </c>
+      <c r="C3">
+        <v>-0.5404898529367779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B4">
+        <v>-0.4624204836027056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="B5">
+        <v>-0.1816338290872792</v>
+      </c>
+      <c r="C5">
+        <v>0.4175424122675715</v>
+      </c>
+      <c r="D5">
+        <v>0.1638666336532741</v>
+      </c>
+      <c r="E5">
+        <v>0.2808488416856285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>0.1354410601801896</v>
-      </c>
-      <c r="C2">
-        <v>0.4983268632225653</v>
-      </c>
-      <c r="D2">
-        <v>-0.1581439448914032</v>
-      </c>
-      <c r="E2">
-        <v>0.1792115425349232</v>
-      </c>
-      <c r="F2">
-        <v>0.5890041127299775</v>
-      </c>
-      <c r="G2">
-        <v>0.4343252411420089</v>
-      </c>
-      <c r="H2">
-        <v>0.4858445384618889</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="B6">
+        <v>0.3638518021432502</v>
+      </c>
+      <c r="C6">
+        <v>0.0994145303104686</v>
+      </c>
+      <c r="D6">
+        <v>0.2368311179815809</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>0.4416181801906457</v>
-      </c>
-      <c r="C3">
-        <v>-0.1868610830936884</v>
-      </c>
-      <c r="D3">
-        <v>0.1639103301584043</v>
-      </c>
-      <c r="E3">
-        <v>0.5798380527093647</v>
-      </c>
-      <c r="F3">
-        <v>0.4279700873328031</v>
-      </c>
-      <c r="G3">
-        <v>0.4807724257179921</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
+      <c r="B7">
+        <v>0.1800833679649862</v>
+      </c>
+      <c r="C7">
+        <v>0.2502013458267409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>-0.3681760516764501</v>
-      </c>
-      <c r="C4">
-        <v>0.07035403940292595</v>
-      </c>
-      <c r="D4">
-        <v>0.522982672756737</v>
-      </c>
-      <c r="E4">
-        <v>0.3860972454681566</v>
-      </c>
-      <c r="F4">
-        <v>0.445032425577761</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
+      <c r="B8">
+        <v>0.1811400196726811</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>0.1590126597189224</v>
-      </c>
-      <c r="C5">
-        <v>0.5541988314071654</v>
-      </c>
-      <c r="D5">
-        <v>0.3845206638720399</v>
-      </c>
-      <c r="E5">
-        <v>0.4306599914531129</v>
-      </c>
-      <c r="F5">
-        <v>0.1023935419926834</v>
-      </c>
-      <c r="G5">
-        <v>0.4362421625284386</v>
-      </c>
-      <c r="H5">
-        <v>0.5291154701740449</v>
-      </c>
-      <c r="I5">
-        <v>0.04597656105406911</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
+      <c r="B9">
+        <v>-0.2679118145885048</v>
+      </c>
+      <c r="C9">
+        <v>1.60171636757035</v>
+      </c>
+      <c r="D9">
+        <v>-0.1331111701410765</v>
+      </c>
+      <c r="E9">
+        <v>-0.1824129607286327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
-        <v>0.5077090379767348</v>
-      </c>
-      <c r="C6">
-        <v>0.3632678039885168</v>
-      </c>
-      <c r="D6">
-        <v>0.4243795837895609</v>
-      </c>
-      <c r="E6">
-        <v>0.1024024646150709</v>
-      </c>
-      <c r="F6">
-        <v>0.439173098409406</v>
-      </c>
-      <c r="G6">
-        <v>0.5333645010623408</v>
-      </c>
-      <c r="H6">
-        <v>0.05082666064672114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
+      <c r="B10">
+        <v>1.555917034220273</v>
+      </c>
+      <c r="C10">
+        <v>-0.1177613572313572</v>
+      </c>
+      <c r="D10">
+        <v>-0.1345609685839866</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
-        <v>0.1578965722557754</v>
-      </c>
-      <c r="C7">
-        <v>0.3461572770679448</v>
-      </c>
-      <c r="D7">
-        <v>0.0578913094064073</v>
-      </c>
-      <c r="E7">
-        <v>0.4008399442963169</v>
-      </c>
-      <c r="F7">
-        <v>0.4955687812248983</v>
-      </c>
-      <c r="G7">
-        <v>0.01282320805817982</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
+      <c r="B11">
+        <v>0.1684055336862786</v>
+      </c>
+      <c r="C11">
+        <v>-0.1746269780263245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>0.2791508272957762</v>
-      </c>
-      <c r="C8">
-        <v>0.02090138603864167</v>
-      </c>
-      <c r="D8">
-        <v>0.3713704546464541</v>
-      </c>
-      <c r="E8">
-        <v>0.4679588835470375</v>
-      </c>
-      <c r="F8">
-        <v>-0.01431514037197601</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
+      <c r="B12">
+        <v>-0.150859924744715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9">
-        <v>-0.07802230897608231</v>
-      </c>
-      <c r="C9">
-        <v>0.3363557074378163</v>
-      </c>
-      <c r="D9">
-        <v>0.4516338776491966</v>
-      </c>
-      <c r="E9">
-        <v>-0.02538322140523308</v>
-      </c>
-      <c r="F9">
-        <v>0.08576151078736316</v>
-      </c>
-      <c r="G9">
-        <v>0.1153359647893176</v>
-      </c>
-      <c r="H9">
-        <v>-0.08324784227406223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
+      <c r="B13">
+        <v>0.648582173943151</v>
+      </c>
+      <c r="C13">
+        <v>-1.552175294548057</v>
+      </c>
+      <c r="D13">
+        <v>-0.6762162513979951</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
-        <v>0.3599816359027574</v>
-      </c>
-      <c r="C10">
-        <v>0.4621517805886481</v>
-      </c>
-      <c r="D10">
-        <v>-0.01791316581173541</v>
-      </c>
-      <c r="E10">
-        <v>0.09257419306348902</v>
-      </c>
-      <c r="F10">
-        <v>0.1220239907339394</v>
-      </c>
-      <c r="G10">
-        <v>-0.07657667631238785</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
+      <c r="B14">
+        <v>-1.420729737580248</v>
+      </c>
+      <c r="C14">
+        <v>-0.7195187831201819</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11">
-        <v>0.3728990671053303</v>
-      </c>
-      <c r="C11">
-        <v>-0.05072103330862332</v>
-      </c>
-      <c r="D11">
-        <v>0.09371390249687273</v>
-      </c>
-      <c r="E11">
-        <v>0.1366886526157267</v>
-      </c>
-      <c r="F11">
-        <v>-0.05580571610436202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
+      <c r="B15">
+        <v>-0.9463470580686222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B12">
-        <v>-0.1294580173677812</v>
-      </c>
-      <c r="C12">
-        <v>0.05113352913215496</v>
-      </c>
-      <c r="D12">
-        <v>0.1248386343054487</v>
-      </c>
-      <c r="E12">
-        <v>-0.05816982636842183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>0.06061498440408264</v>
-      </c>
-      <c r="C13">
-        <v>0.1328579914420467</v>
-      </c>
-      <c r="D13">
-        <v>-0.06105082523911409</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <v>0.1197605005935257</v>
-      </c>
-      <c r="C14">
-        <v>-0.06768852826963279</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15">
-        <v>-0.1187462855190874</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/OPA/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/OPA/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -453,13 +453,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2.666585772128139</v>
+        <v>-0.3715635136444516</v>
       </c>
       <c r="C2">
-        <v>-0.2360270129762616</v>
+        <v>0.1535251409344947</v>
       </c>
       <c r="D2">
-        <v>-0.4095286534671631</v>
+        <v>-0.3787274915688817</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -467,10 +467,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.008327869467996907</v>
+        <v>0.3978800233787532</v>
       </c>
       <c r="C3">
-        <v>-0.5404898529367779</v>
+        <v>-0.5096886910384966</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>-0.4624204836027056</v>
+        <v>-0.4316193217044243</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -486,16 +486,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>-0.1816338290872792</v>
+        <v>-0.1122912858586644</v>
       </c>
       <c r="C5">
-        <v>0.4175424122675715</v>
+        <v>0.3447545960399119</v>
       </c>
       <c r="D5">
-        <v>0.1638666336532741</v>
+        <v>0.227751383870373</v>
       </c>
       <c r="E5">
-        <v>0.2808488416856285</v>
+        <v>0.2766951351148101</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -503,13 +503,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.3638518021432502</v>
+        <v>0.2910639859155906</v>
       </c>
       <c r="C6">
-        <v>0.0994145303104686</v>
+        <v>0.1632992805275675</v>
       </c>
       <c r="D6">
-        <v>0.2368311179815809</v>
+        <v>0.2326774114107624</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -517,10 +517,10 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.1800833679649862</v>
+        <v>0.2439681181820851</v>
       </c>
       <c r="C7">
-        <v>0.2502013458267409</v>
+        <v>0.2460476392559225</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -528,7 +528,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.1811400196726811</v>
+        <v>0.1769863131018627</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -536,16 +536,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>-0.2679118145885048</v>
+        <v>-0.1631350120513026</v>
       </c>
       <c r="C9">
-        <v>1.60171636757035</v>
+        <v>0.1559839361989813</v>
       </c>
       <c r="D9">
-        <v>-0.1331111701410765</v>
+        <v>0.2182565853642597</v>
       </c>
       <c r="E9">
-        <v>-0.1824129607286327</v>
+        <v>-0.258310573012756</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -553,13 +553,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>1.555917034220273</v>
+        <v>0.1101846028489047</v>
       </c>
       <c r="C10">
-        <v>-0.1177613572313572</v>
+        <v>0.233606398273979</v>
       </c>
       <c r="D10">
-        <v>-0.1345609685839866</v>
+        <v>-0.2104585808681099</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -567,10 +567,10 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.1684055336862786</v>
+        <v>0.5197732891916149</v>
       </c>
       <c r="C11">
-        <v>-0.1746269780263245</v>
+        <v>-0.2505245903104478</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,7 +578,7 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>-0.150859924744715</v>
+        <v>-0.2267575370288383</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -586,13 +586,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.648582173943151</v>
+        <v>-0.1046767183175807</v>
       </c>
       <c r="C13">
-        <v>-1.552175294548057</v>
+        <v>-0.08657733350508284</v>
       </c>
       <c r="D13">
-        <v>-0.6762162513979951</v>
+        <v>-0.2473038116165672</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -600,10 +600,10 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>-1.420729737580248</v>
+        <v>0.04486822346272668</v>
       </c>
       <c r="C14">
-        <v>-0.7195187831201819</v>
+        <v>-0.290606343338754</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -611,7 +611,7 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>-0.9463470580686222</v>
+        <v>-0.5174346182871943</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/3_Component_Results/OPA/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/OPA/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Q0</t>
   </si>
@@ -26,6 +26,120 @@
   </si>
   <si>
     <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>2010-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -428,13 +542,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,176 +561,1503 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2">
+        <v>0.4261662789494098</v>
+      </c>
+      <c r="C2">
+        <v>-0.4148315191986851</v>
+      </c>
+      <c r="D2">
+        <v>0.2269866529607441</v>
+      </c>
+      <c r="E2">
+        <v>0.259447019688178</v>
+      </c>
+      <c r="F2">
+        <v>-0.4180513517688149</v>
+      </c>
+      <c r="G2">
+        <v>-0.5535198634415261</v>
+      </c>
+      <c r="H2">
+        <v>2.68877222671838</v>
+      </c>
+      <c r="I2">
+        <v>0.3400869743364821</v>
+      </c>
+      <c r="J2">
+        <v>0.1348951596829471</v>
+      </c>
+      <c r="K2">
+        <v>0.02626671355988308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0.282278700362621</v>
+      </c>
+      <c r="C3">
+        <v>0.3482412952043961</v>
+      </c>
+      <c r="D3">
+        <v>-0.3161569917975331</v>
+      </c>
+      <c r="E3">
+        <v>-0.4607877779873313</v>
+      </c>
+      <c r="F3">
+        <v>2.783983535710203</v>
+      </c>
+      <c r="G3">
+        <v>0.435228329214659</v>
+      </c>
+      <c r="H3">
+        <v>0.2298055124541452</v>
+      </c>
+      <c r="I3">
+        <v>0.1212785292457002</v>
+      </c>
+      <c r="J3">
+        <v>2.709287090479095</v>
+      </c>
+      <c r="K3">
+        <v>0.1224913891031651</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>-0.193200200867367</v>
+      </c>
+      <c r="C4">
+        <v>-0.4585019023770391</v>
+      </c>
+      <c r="D4">
+        <v>2.759403007612974</v>
+      </c>
+      <c r="E4">
+        <v>0.443331926238274</v>
+      </c>
+      <c r="F4">
+        <v>0.2273412200816141</v>
+      </c>
+      <c r="G4">
+        <v>0.1182034355912771</v>
+      </c>
+      <c r="H4">
+        <v>2.708258170897472</v>
+      </c>
+      <c r="I4">
+        <v>0.12062910644058</v>
+      </c>
+      <c r="J4">
+        <v>0.09057073132488092</v>
+      </c>
+      <c r="K4">
+        <v>0.4211604121724621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>2.280197391882808</v>
+      </c>
+      <c r="C5">
+        <v>0.05637982998044788</v>
+      </c>
+      <c r="D5">
+        <v>-0.1126776686623598</v>
+      </c>
+      <c r="E5">
+        <v>-0.2384888849824278</v>
+      </c>
+      <c r="F5">
+        <v>2.350397416568641</v>
+      </c>
+      <c r="G5">
+        <v>-0.2352644561828259</v>
+      </c>
+      <c r="H5">
+        <v>-0.265665663304977</v>
+      </c>
+      <c r="I5">
+        <v>0.06477891066172003</v>
+      </c>
+      <c r="J5">
+        <v>1.967457555792384</v>
+      </c>
+      <c r="K5">
+        <v>1.157654893904229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>0.2932104325952452</v>
+      </c>
+      <c r="C6">
+        <v>-0.1098083670659</v>
+      </c>
+      <c r="D6">
+        <v>2.232188617770487</v>
+      </c>
+      <c r="E6">
+        <v>-0.2658772530134268</v>
+      </c>
+      <c r="F6">
+        <v>-0.2891883564264011</v>
+      </c>
+      <c r="G6">
+        <v>0.02995433728752106</v>
+      </c>
+      <c r="H6">
+        <v>1.934449739627937</v>
+      </c>
+      <c r="I6">
+        <v>1.12547608528242</v>
+      </c>
+      <c r="J6">
+        <v>1.015395910323341</v>
+      </c>
+      <c r="K6">
+        <v>0.9427264991470219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>2.136623637011471</v>
+      </c>
+      <c r="C7">
+        <v>-0.3995507079807878</v>
+      </c>
+      <c r="D7">
+        <v>-0.4153415911609659</v>
+      </c>
+      <c r="E7">
+        <v>-0.09111314195834397</v>
+      </c>
+      <c r="F7">
+        <v>1.81172241674292</v>
+      </c>
+      <c r="G7">
+        <v>1.002323720616632</v>
+      </c>
+      <c r="H7">
+        <v>0.8925468620085346</v>
+      </c>
+      <c r="I7">
+        <v>0.8198674948459739</v>
+      </c>
+      <c r="J7">
+        <v>0.3652474116730475</v>
+      </c>
+      <c r="K7">
+        <v>0.3938439809277354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-0.07685514172901597</v>
+      </c>
+      <c r="C8">
+        <v>-0.02107490934273892</v>
+      </c>
+      <c r="D8">
+        <v>1.716085426006324</v>
+      </c>
+      <c r="E8">
+        <v>0.9624685613762427</v>
+      </c>
+      <c r="F8">
+        <v>0.8560532527724727</v>
+      </c>
+      <c r="G8">
+        <v>0.77789100530955</v>
+      </c>
+      <c r="H8">
+        <v>0.3240575576188827</v>
+      </c>
+      <c r="I8">
+        <v>0.3529734851452444</v>
+      </c>
+      <c r="J8">
+        <v>0.4196999664900911</v>
+      </c>
+      <c r="K8">
+        <v>0.3693462914902568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>1.751875903031814</v>
+      </c>
+      <c r="C9">
+        <v>1.032587498456717</v>
+      </c>
+      <c r="D9">
+        <v>0.9323075194061827</v>
+      </c>
+      <c r="E9">
+        <v>0.852806869728693</v>
+      </c>
+      <c r="F9">
+        <v>0.3989643831107936</v>
+      </c>
+      <c r="G9">
+        <v>0.4277909294217004</v>
+      </c>
+      <c r="H9">
+        <v>0.4945609679811671</v>
+      </c>
+      <c r="I9">
+        <v>0.4442131231050528</v>
+      </c>
+      <c r="J9">
+        <v>0.8535917717023087</v>
+      </c>
+      <c r="K9">
+        <v>0.3721266669610499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>1.236508713534679</v>
+      </c>
+      <c r="C10">
+        <v>0.8511908857575459</v>
+      </c>
+      <c r="D10">
+        <v>0.3339404908521335</v>
+      </c>
+      <c r="E10">
+        <v>0.3927456985813234</v>
+      </c>
+      <c r="F10">
+        <v>0.4572879135726722</v>
+      </c>
+      <c r="G10">
+        <v>0.4056544969018057</v>
+      </c>
+      <c r="H10">
+        <v>0.8154127925394437</v>
+      </c>
+      <c r="I10">
+        <v>0.333947192149763</v>
+      </c>
+      <c r="J10">
+        <v>0.4683320949034209</v>
+      </c>
+      <c r="K10">
+        <v>0.7369448073161031</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0.2455009210634672</v>
+      </c>
+      <c r="C11">
+        <v>0.1883436630592354</v>
+      </c>
+      <c r="D11">
+        <v>0.2984210952825883</v>
+      </c>
+      <c r="E11">
+        <v>0.2393278539476089</v>
+      </c>
+      <c r="F11">
+        <v>0.6515813919389311</v>
+      </c>
+      <c r="G11">
+        <v>0.1694049554583316</v>
+      </c>
+      <c r="H11">
+        <v>0.3040186003855151</v>
+      </c>
+      <c r="I11">
+        <v>0.5725721547135221</v>
+      </c>
+      <c r="J11">
+        <v>0.07927540033036573</v>
+      </c>
+      <c r="K11">
+        <v>0.03022710229385572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>0.2537071001897339</v>
+      </c>
+      <c r="C12">
+        <v>0.2104306602693305</v>
+      </c>
+      <c r="D12">
+        <v>0.6274525642609426</v>
+      </c>
+      <c r="E12">
+        <v>0.1455387401134146</v>
+      </c>
+      <c r="F12">
+        <v>0.2804004188513257</v>
+      </c>
+      <c r="G12">
+        <v>0.5489357494402969</v>
+      </c>
+      <c r="H12">
+        <v>0.05565576347416545</v>
+      </c>
+      <c r="I12">
+        <v>0.00660426500036515</v>
+      </c>
+      <c r="J12">
+        <v>0.2407539267909443</v>
+      </c>
+      <c r="K12">
+        <v>0.9283573745585176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>0.7225772760483231</v>
+      </c>
+      <c r="C13">
+        <v>0.1893007963445753</v>
+      </c>
+      <c r="D13">
+        <v>0.3381452467424164</v>
+      </c>
+      <c r="E13">
+        <v>0.603716576764518</v>
+      </c>
+      <c r="F13">
+        <v>0.1111138793206116</v>
+      </c>
+      <c r="G13">
+        <v>0.06191071945530291</v>
+      </c>
+      <c r="H13">
+        <v>0.2960940952221741</v>
+      </c>
+      <c r="I13">
+        <v>0.9836900069719408</v>
+      </c>
+      <c r="J13">
+        <v>-0.593957220565665</v>
+      </c>
+      <c r="K13">
+        <v>0.6044858134809817</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>0.3920951988496797</v>
+      </c>
+      <c r="C14">
+        <v>0.5514570866728734</v>
+      </c>
+      <c r="D14">
+        <v>0.09179643100824242</v>
+      </c>
+      <c r="E14">
+        <v>0.03544147618839999</v>
+      </c>
+      <c r="F14">
+        <v>0.271432727960069</v>
+      </c>
+      <c r="G14">
+        <v>0.9586020518687802</v>
+      </c>
+      <c r="H14">
+        <v>-0.6189414196534915</v>
+      </c>
+      <c r="I14">
+        <v>0.5794767200618818</v>
+      </c>
+      <c r="J14">
+        <v>0.7042923127601326</v>
+      </c>
+      <c r="K14">
+        <v>0.4234840706870904</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>0.1180881657539883</v>
+      </c>
+      <c r="C15">
+        <v>0.01976742672920184</v>
+      </c>
+      <c r="D15">
+        <v>0.2696286214033909</v>
+      </c>
+      <c r="E15">
+        <v>0.9538234740452962</v>
+      </c>
+      <c r="F15">
+        <v>-0.6229519315388955</v>
+      </c>
+      <c r="G15">
+        <v>0.575284109662343</v>
+      </c>
+      <c r="H15">
+        <v>0.7001445548382217</v>
+      </c>
+      <c r="I15">
+        <v>0.4193254547713022</v>
+      </c>
+      <c r="J15">
+        <v>2.000135231347048</v>
+      </c>
+      <c r="K15">
+        <v>-0.05048652456893798</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>0.2444958115682418</v>
+      </c>
+      <c r="C16">
+        <v>0.9388220312392042</v>
+      </c>
+      <c r="D16">
+        <v>-0.6379621501590433</v>
+      </c>
+      <c r="E16">
+        <v>0.5605656930622237</v>
+      </c>
+      <c r="F16">
+        <v>0.6853895282656</v>
+      </c>
+      <c r="G16">
+        <v>0.4045833609819696</v>
+      </c>
+      <c r="H16">
+        <v>1.985390475910327</v>
+      </c>
+      <c r="I16">
+        <v>-0.06523057740611693</v>
+      </c>
+      <c r="J16">
+        <v>-0.1162792515132847</v>
+      </c>
+      <c r="K16">
+        <v>-0.1655445238429389</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>-0.5837973756645536</v>
+      </c>
+      <c r="C17">
+        <v>0.5679633782681194</v>
+      </c>
+      <c r="D17">
+        <v>0.7038552932798152</v>
+      </c>
+      <c r="E17">
+        <v>0.4207990207140799</v>
+      </c>
+      <c r="F17">
+        <v>2.0020859516837</v>
+      </c>
+      <c r="G17">
+        <v>-0.04863586361525429</v>
+      </c>
+      <c r="H17">
+        <v>-0.09966327803795372</v>
+      </c>
+      <c r="I17">
+        <v>-0.1489330297341762</v>
+      </c>
+      <c r="J17">
+        <v>1.20200289926206</v>
+      </c>
+      <c r="K17">
+        <v>0.3156704549392173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>0.6832562133282594</v>
+      </c>
+      <c r="C18">
+        <v>0.6513395151467358</v>
+      </c>
+      <c r="D18">
+        <v>0.4074004165890073</v>
+      </c>
+      <c r="E18">
+        <v>1.9808679531538</v>
+      </c>
+      <c r="F18">
+        <v>-0.06821096346749778</v>
+      </c>
+      <c r="G18">
+        <v>-0.1195778494652251</v>
+      </c>
+      <c r="H18">
+        <v>-0.1687770655442112</v>
+      </c>
+      <c r="I18">
+        <v>1.182144234268416</v>
+      </c>
+      <c r="J18">
+        <v>0.2958148259702751</v>
+      </c>
+      <c r="K18">
+        <v>0.08396207372115949</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>0.5791492005428169</v>
+      </c>
+      <c r="C19">
+        <v>0.4238613392928928</v>
+      </c>
+      <c r="D19">
+        <v>1.978145448386832</v>
+      </c>
+      <c r="E19">
+        <v>-0.06722616548856164</v>
+      </c>
+      <c r="F19">
+        <v>-0.1193326258104142</v>
+      </c>
+      <c r="G19">
+        <v>-0.1683858142398509</v>
+      </c>
+      <c r="H19">
+        <v>1.182506588982339</v>
+      </c>
+      <c r="I19">
+        <v>0.2961828897545296</v>
+      </c>
+      <c r="J19">
+        <v>0.08432901013641159</v>
+      </c>
+      <c r="K19">
+        <v>0.08530586575918309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0.3485288293144181</v>
+      </c>
+      <c r="C20">
+        <v>1.893263790923973</v>
+      </c>
+      <c r="D20">
+        <v>-0.1393922056948796</v>
+      </c>
+      <c r="E20">
+        <v>-0.1935271501310974</v>
+      </c>
+      <c r="F20">
+        <v>-0.2419417188583473</v>
+      </c>
+      <c r="G20">
+        <v>1.10880958763326</v>
+      </c>
+      <c r="H20">
+        <v>0.2225220213172363</v>
+      </c>
+      <c r="I20">
+        <v>0.01065962235730145</v>
+      </c>
+      <c r="J20">
+        <v>0.0116385490721248</v>
+      </c>
+      <c r="K20">
+        <v>0.1081826259740305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>1.937751311375422</v>
+      </c>
+      <c r="C21">
+        <v>-0.1946914954062638</v>
+      </c>
+      <c r="D21">
+        <v>-0.2155290366663459</v>
+      </c>
+      <c r="E21">
+        <v>-0.2711020097460661</v>
+      </c>
+      <c r="F21">
+        <v>1.081564069184762</v>
+      </c>
+      <c r="G21">
+        <v>0.194819310541832</v>
+      </c>
+      <c r="H21">
+        <v>-0.01692736110257942</v>
+      </c>
+      <c r="I21">
+        <v>-0.01597687544057691</v>
+      </c>
+      <c r="J21">
+        <v>0.08057430119843012</v>
+      </c>
+      <c r="K21">
+        <v>0.08070990240695997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>-0.1731083424599884</v>
+      </c>
+      <c r="C22">
+        <v>-0.2595504559620161</v>
+      </c>
+      <c r="D22">
+        <v>-0.2996096923292247</v>
+      </c>
+      <c r="E22">
+        <v>1.049559014342992</v>
+      </c>
+      <c r="F22">
+        <v>0.1636019691515578</v>
+      </c>
+      <c r="G22">
+        <v>-0.04832705007312732</v>
+      </c>
+      <c r="H22">
+        <v>-0.04733459448215649</v>
+      </c>
+      <c r="I22">
+        <v>0.04920675103012406</v>
+      </c>
+      <c r="J22">
+        <v>0.04934466090151512</v>
+      </c>
+      <c r="K22">
+        <v>-0.7519954574612671</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>-0.08094589933148177</v>
+      </c>
+      <c r="C23">
+        <v>-0.4089829245631562</v>
+      </c>
+      <c r="D23">
+        <v>1.056976333337126</v>
+      </c>
+      <c r="E23">
+        <v>0.1467917694268529</v>
+      </c>
+      <c r="F23">
+        <v>-0.05768040938222163</v>
+      </c>
+      <c r="G23">
+        <v>-0.05848805390843126</v>
+      </c>
+      <c r="H23">
+        <v>0.03855654996388036</v>
+      </c>
+      <c r="I23">
+        <v>0.03856575204667445</v>
+      </c>
+      <c r="J23">
+        <v>-0.7627396084740254</v>
+      </c>
+      <c r="K23">
+        <v>-0.7615937482064451</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-0.2513425296929904</v>
+      </c>
+      <c r="C24">
+        <v>1.028704394901028</v>
+      </c>
+      <c r="D24">
+        <v>0.1560986491501518</v>
+      </c>
+      <c r="E24">
+        <v>-0.05293548989079377</v>
+      </c>
+      <c r="F24">
+        <v>-0.05292697957280379</v>
+      </c>
+      <c r="G24">
+        <v>0.0435382052110469</v>
+      </c>
+      <c r="H24">
+        <v>0.04373449894115844</v>
+      </c>
+      <c r="I24">
+        <v>-0.7576056888267186</v>
+      </c>
+      <c r="J24">
+        <v>-0.7564539868836064</v>
+      </c>
+      <c r="K24">
+        <v>-0.6535089281702675</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>0.9778389946338424</v>
+      </c>
+      <c r="C25">
+        <v>0.1366287495284449</v>
+      </c>
+      <c r="D25">
+        <v>-0.06822100283606725</v>
+      </c>
+      <c r="E25">
+        <v>-0.07017530968052899</v>
+      </c>
+      <c r="F25">
+        <v>0.02650553909141562</v>
+      </c>
+      <c r="G25">
+        <v>0.02674618258842709</v>
+      </c>
+      <c r="H25">
+        <v>-0.7746147464165042</v>
+      </c>
+      <c r="I25">
+        <v>-0.773461104388653</v>
+      </c>
+      <c r="J25">
+        <v>-0.6705152351149418</v>
+      </c>
+      <c r="K25">
+        <v>-0.1741204589943213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>-0.01509303936744111</v>
+      </c>
+      <c r="C26">
+        <v>-0.1414099405381857</v>
+      </c>
+      <c r="D26">
+        <v>-0.06332017579648674</v>
+      </c>
+      <c r="E26">
+        <v>0.001138542734215209</v>
+      </c>
+      <c r="F26">
+        <v>-0.007480636921345374</v>
+      </c>
+      <c r="G26">
+        <v>-0.8007886391317613</v>
+      </c>
+      <c r="H26">
+        <v>-0.799510594738874</v>
+      </c>
+      <c r="I26">
+        <v>-0.6981657240822285</v>
+      </c>
+      <c r="J26">
+        <v>-0.2014773885124308</v>
+      </c>
+      <c r="K26">
+        <v>0.2962966211861695</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>0.005357099670473153</v>
+      </c>
+      <c r="C27">
+        <v>0.06753599328713344</v>
+      </c>
+      <c r="D27">
+        <v>-0.06099434535454784</v>
+      </c>
+      <c r="E27">
+        <v>-0.02994760574305189</v>
+      </c>
+      <c r="F27">
+        <v>-0.7936232569615915</v>
+      </c>
+      <c r="G27">
+        <v>-0.8056003930583759</v>
+      </c>
+      <c r="H27">
+        <v>-0.7074466539681415</v>
+      </c>
+      <c r="I27">
+        <v>-0.2076017790465973</v>
+      </c>
+      <c r="J27">
+        <v>0.2901881189615265</v>
+      </c>
+      <c r="K27">
+        <v>-0.3058520919286195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>-0.2863248188760876</v>
+      </c>
+      <c r="C28">
+        <v>-0.1827075221900252</v>
+      </c>
+      <c r="D28">
+        <v>-0.1256839640822647</v>
+      </c>
+      <c r="E28">
+        <v>-0.9383400983453423</v>
+      </c>
+      <c r="F28">
+        <v>-0.946725684277518</v>
+      </c>
+      <c r="G28">
+        <v>-0.8398339363362594</v>
+      </c>
+      <c r="H28">
+        <v>-0.3421950874579329</v>
+      </c>
+      <c r="I28">
+        <v>0.15430878618849</v>
+      </c>
+      <c r="J28">
+        <v>-0.4410878797796571</v>
+      </c>
+      <c r="K28">
+        <v>-0.07673375111754099</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>-0.5920498739046444</v>
+      </c>
+      <c r="C29">
+        <v>-0.1187892590051849</v>
+      </c>
+      <c r="D29">
+        <v>-0.8066751282757116</v>
+      </c>
+      <c r="E29">
+        <v>-0.9737809542713491</v>
+      </c>
+      <c r="F29">
+        <v>-0.8709316185150218</v>
+      </c>
+      <c r="G29">
+        <v>-0.322986262205976</v>
+      </c>
+      <c r="H29">
+        <v>0.1639454446576458</v>
+      </c>
+      <c r="I29">
+        <v>-0.4449833657489037</v>
+      </c>
+      <c r="J29">
+        <v>-0.07480307373632955</v>
+      </c>
+      <c r="K29">
+        <v>0.3497146444983802</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>-0.05733360117482567</v>
+      </c>
+      <c r="C30">
+        <v>-0.8731868743015987</v>
+      </c>
+      <c r="D30">
+        <v>-0.8582876453824433</v>
+      </c>
+      <c r="E30">
+        <v>-0.7543444762476823</v>
+      </c>
+      <c r="F30">
+        <v>-0.260885433826836</v>
+      </c>
+      <c r="G30">
+        <v>0.2368470008185057</v>
+      </c>
+      <c r="H30">
+        <v>-0.3579079153570042</v>
+      </c>
+      <c r="I30">
+        <v>0.006103949419840715</v>
+      </c>
+      <c r="J30">
+        <v>0.4276015187548868</v>
+      </c>
+      <c r="K30">
+        <v>0.2781575408018784</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>-0.5667275227190582</v>
+      </c>
+      <c r="C31">
+        <v>-0.9411679552837471</v>
+      </c>
+      <c r="D31">
+        <v>-0.8605153000107424</v>
+      </c>
+      <c r="E31">
+        <v>-0.3039451060329967</v>
+      </c>
+      <c r="F31">
+        <v>0.1947298762581822</v>
+      </c>
+      <c r="G31">
+        <v>-0.4101375115338847</v>
+      </c>
+      <c r="H31">
+        <v>-0.04580943798282133</v>
+      </c>
+      <c r="I31">
+        <v>0.3772852790458663</v>
+      </c>
+      <c r="J31">
+        <v>0.2277130087949474</v>
+      </c>
+      <c r="K31">
+        <v>0.281286860704294</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>-1.087865203189742</v>
+      </c>
+      <c r="C32">
+        <v>-0.9449396789845469</v>
+      </c>
+      <c r="D32">
+        <v>-0.283601828373913</v>
+      </c>
+      <c r="E32">
+        <v>0.196667510605652</v>
+      </c>
+      <c r="F32">
+        <v>-0.4228831533056128</v>
+      </c>
+      <c r="G32">
+        <v>-0.05446241108888816</v>
+      </c>
+      <c r="H32">
+        <v>0.3705740827197463</v>
+      </c>
+      <c r="I32">
+        <v>0.2201999929922713</v>
+      </c>
+      <c r="J32">
+        <v>0.2735373090992323</v>
+      </c>
+      <c r="K32">
+        <v>-0.05104296487933424</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>-0.8895934450056093</v>
+      </c>
+      <c r="C33">
+        <v>-0.4067284465720221</v>
+      </c>
+      <c r="D33">
+        <v>0.1886835612269308</v>
+      </c>
+      <c r="E33">
+        <v>-0.4095338268123987</v>
+      </c>
+      <c r="F33">
+        <v>-0.05487073186955682</v>
+      </c>
+      <c r="G33">
+        <v>0.3674169098225889</v>
+      </c>
+      <c r="H33">
+        <v>0.2188327296450223</v>
+      </c>
+      <c r="I33">
+        <v>0.2725331709462364</v>
+      </c>
+      <c r="J33">
+        <v>-0.05229938767360398</v>
+      </c>
+      <c r="K33">
+        <v>0.2830816778414691</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
         <v>-0.3715635136444516</v>
       </c>
-      <c r="C2">
+      <c r="C34">
         <v>0.1535251409344947</v>
       </c>
-      <c r="D2">
+      <c r="D34">
         <v>-0.3787274915688817</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
+      <c r="E34">
+        <v>-0.01902831113771342</v>
+      </c>
+      <c r="F34">
+        <v>0.3980766167318615</v>
+      </c>
+      <c r="G34">
+        <v>0.2490921970613773</v>
+      </c>
+      <c r="H34">
+        <v>0.3032120312269969</v>
+      </c>
+      <c r="I34">
+        <v>-0.02158573734897595</v>
+      </c>
+      <c r="J34">
+        <v>0.3137600204310593</v>
+      </c>
+      <c r="K34">
+        <v>0.4073055503731244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
         <v>0.3978800233787532</v>
       </c>
-      <c r="C3">
+      <c r="C35">
         <v>-0.5096886910384966</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
+      <c r="D35">
+        <v>-0.09976801812117753</v>
+      </c>
+      <c r="E35">
+        <v>0.3499142055329315</v>
+      </c>
+      <c r="F35">
+        <v>0.1923922927489112</v>
+      </c>
+      <c r="G35">
+        <v>0.2441145864502094</v>
+      </c>
+      <c r="H35">
+        <v>-0.07954368195100681</v>
+      </c>
+      <c r="I35">
+        <v>0.2559224128397721</v>
+      </c>
+      <c r="J35">
+        <v>0.3493362371358765</v>
+      </c>
+      <c r="K35">
+        <v>-0.1335068715833578</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
         <v>-0.4316193217044243</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
+      <c r="C36">
+        <v>-0.05312587238374356</v>
+      </c>
+      <c r="D36">
+        <v>0.3566795851095967</v>
+      </c>
+      <c r="E36">
+        <v>0.207065851341262</v>
+      </c>
+      <c r="F36">
+        <v>0.2616595066606375</v>
+      </c>
+      <c r="G36">
+        <v>-0.06313535788947888</v>
+      </c>
+      <c r="H36">
+        <v>0.2721829488653306</v>
+      </c>
+      <c r="I36">
+        <v>0.3657304637420177</v>
+      </c>
+      <c r="J36">
+        <v>-0.1171136666381989</v>
+      </c>
+      <c r="K36">
+        <v>-0.007525697356774663</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
         <v>-0.1122912858586644</v>
       </c>
-      <c r="C5">
+      <c r="C37">
         <v>0.3447545960399119</v>
       </c>
-      <c r="D5">
+      <c r="D37">
         <v>0.227751383870373</v>
       </c>
-      <c r="E5">
+      <c r="E37">
         <v>0.2766951351148101</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
+      <c r="F37">
+        <v>-0.05009772688412406</v>
+      </c>
+      <c r="G37">
+        <v>0.2857684298912493</v>
+      </c>
+      <c r="H37">
+        <v>0.3794247071524067</v>
+      </c>
+      <c r="I37">
+        <v>-0.1034668313280579</v>
+      </c>
+      <c r="J37">
+        <v>0.006116413584839497</v>
+      </c>
+      <c r="K37">
+        <v>0.03527950257553258</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
         <v>0.2910639859155906</v>
       </c>
-      <c r="C6">
+      <c r="C38">
         <v>0.1632992805275675</v>
       </c>
-      <c r="D6">
+      <c r="D38">
         <v>0.2326774114107624</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
+      <c r="E38">
+        <v>-0.09647817572859507</v>
+      </c>
+      <c r="F38">
+        <v>0.2372032256544119</v>
+      </c>
+      <c r="G38">
+        <v>0.3314989358053904</v>
+      </c>
+      <c r="H38">
+        <v>-0.151191763721542</v>
+      </c>
+      <c r="I38">
+        <v>-0.04171986294061492</v>
+      </c>
+      <c r="J38">
+        <v>-0.01257046961426211</v>
+      </c>
+      <c r="K38">
+        <v>-0.2112482302382686</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
         <v>0.2439681181820851</v>
       </c>
-      <c r="C7">
+      <c r="C39">
         <v>0.2460476392559225</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
+      <c r="D39">
+        <v>-0.1296041359861648</v>
+      </c>
+      <c r="E39">
+        <v>0.2185130551731483</v>
+      </c>
+      <c r="F39">
+        <v>0.3180037334563132</v>
+      </c>
+      <c r="G39">
+        <v>-0.1672933114643393</v>
+      </c>
+      <c r="H39">
+        <v>-0.05829934505987588</v>
+      </c>
+      <c r="I39">
+        <v>-0.02872667203886481</v>
+      </c>
+      <c r="J39">
+        <v>-0.2273793871773302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
         <v>0.1769863131018627</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
+      <c r="C40">
+        <v>-0.1471095185873648</v>
+      </c>
+      <c r="D40">
+        <v>0.1619951315760313</v>
+      </c>
+      <c r="E40">
+        <v>0.2581544561876079</v>
+      </c>
+      <c r="F40">
+        <v>-0.2193826800192448</v>
+      </c>
+      <c r="G40">
+        <v>-0.1109082882268551</v>
+      </c>
+      <c r="H40">
+        <v>-0.08276098355462091</v>
+      </c>
+      <c r="I40">
+        <v>-0.2811122641411775</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
         <v>-0.1631350120513026</v>
       </c>
-      <c r="C9">
+      <c r="C41">
         <v>0.1559839361989813</v>
       </c>
-      <c r="D9">
+      <c r="D41">
         <v>0.2182565853642597</v>
       </c>
-      <c r="E9">
+      <c r="E41">
         <v>-0.258310573012756</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
+      <c r="F41">
+        <v>-0.1429712114340882</v>
+      </c>
+      <c r="G41">
+        <v>-0.1156350758700901</v>
+      </c>
+      <c r="H41">
+        <v>-0.3153234992185813</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
         <v>0.1101846028489047</v>
       </c>
-      <c r="C10">
+      <c r="C42">
         <v>0.233606398273979</v>
       </c>
-      <c r="D10">
+      <c r="D42">
         <v>-0.2104585808681099</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
+      <c r="E42">
+        <v>-0.108132298083252</v>
+      </c>
+      <c r="F42">
+        <v>-0.08554729645327935</v>
+      </c>
+      <c r="G42">
+        <v>-0.2826178570748835</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
         <v>0.5197732891916149</v>
       </c>
-      <c r="C11">
+      <c r="C43">
         <v>-0.2505245903104478</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
+      <c r="D43">
+        <v>-0.2102778516434502</v>
+      </c>
+      <c r="E43">
+        <v>-0.124539757784756</v>
+      </c>
+      <c r="F43">
+        <v>-0.3123192818844573</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
         <v>-0.2267575370288383</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
+      <c r="C44">
+        <v>-0.05426431190252079</v>
+      </c>
+      <c r="D44">
+        <v>-0.07595150814512602</v>
+      </c>
+      <c r="E44">
+        <v>-0.2858075051821775</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
         <v>-0.1046767183175807</v>
       </c>
-      <c r="C13">
+      <c r="C45">
         <v>-0.08657733350508284</v>
       </c>
-      <c r="D13">
+      <c r="D45">
         <v>-0.2473038116165672</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
         <v>0.04486822346272668</v>
       </c>
-      <c r="C14">
+      <c r="C46">
         <v>-0.290606343338754</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
         <v>-0.5174346182871943</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/OPA/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/OPA/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Q0</t>
   </si>
@@ -44,6 +44,21 @@
   </si>
   <si>
     <t>Q9</t>
+  </si>
+  <si>
+    <t>2007-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2010-04-01 00:00:00_diff</t>
@@ -542,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,210 +599,60 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>0.4261662789494098</v>
-      </c>
-      <c r="C2">
-        <v>-0.4148315191986851</v>
-      </c>
-      <c r="D2">
-        <v>0.2269866529607441</v>
-      </c>
-      <c r="E2">
-        <v>0.259447019688178</v>
-      </c>
-      <c r="F2">
-        <v>-0.4180513517688149</v>
-      </c>
-      <c r="G2">
-        <v>-0.5535198634415261</v>
-      </c>
-      <c r="H2">
-        <v>2.68877222671838</v>
-      </c>
-      <c r="I2">
-        <v>0.3400869743364821</v>
-      </c>
-      <c r="J2">
-        <v>0.1348951596829471</v>
-      </c>
-      <c r="K2">
-        <v>0.02626671355988308</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>0.282278700362621</v>
-      </c>
-      <c r="C3">
-        <v>0.3482412952043961</v>
-      </c>
-      <c r="D3">
-        <v>-0.3161569917975331</v>
-      </c>
-      <c r="E3">
-        <v>-0.4607877779873313</v>
-      </c>
-      <c r="F3">
-        <v>2.783983535710203</v>
-      </c>
-      <c r="G3">
-        <v>0.435228329214659</v>
-      </c>
-      <c r="H3">
-        <v>0.2298055124541452</v>
-      </c>
-      <c r="I3">
-        <v>0.1212785292457002</v>
-      </c>
-      <c r="J3">
-        <v>2.709287090479095</v>
-      </c>
-      <c r="K3">
-        <v>0.1224913891031651</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
-        <v>-0.193200200867367</v>
-      </c>
-      <c r="C4">
-        <v>-0.4585019023770391</v>
-      </c>
-      <c r="D4">
-        <v>2.759403007612974</v>
-      </c>
-      <c r="E4">
-        <v>0.443331926238274</v>
-      </c>
-      <c r="F4">
-        <v>0.2273412200816141</v>
-      </c>
-      <c r="G4">
-        <v>0.1182034355912771</v>
-      </c>
-      <c r="H4">
-        <v>2.708258170897472</v>
-      </c>
-      <c r="I4">
-        <v>0.12062910644058</v>
-      </c>
-      <c r="J4">
-        <v>0.09057073132488092</v>
-      </c>
-      <c r="K4">
-        <v>0.4211604121724621</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
-        <v>2.280197391882808</v>
-      </c>
-      <c r="C5">
-        <v>0.05637982998044788</v>
-      </c>
-      <c r="D5">
-        <v>-0.1126776686623598</v>
-      </c>
-      <c r="E5">
-        <v>-0.2384888849824278</v>
-      </c>
-      <c r="F5">
-        <v>2.350397416568641</v>
-      </c>
-      <c r="G5">
-        <v>-0.2352644561828259</v>
-      </c>
-      <c r="H5">
-        <v>-0.265665663304977</v>
-      </c>
-      <c r="I5">
-        <v>0.06477891066172003</v>
-      </c>
-      <c r="J5">
-        <v>1.967457555792384</v>
-      </c>
-      <c r="K5">
-        <v>1.157654893904229</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
-        <v>0.2932104325952452</v>
-      </c>
-      <c r="C6">
-        <v>-0.1098083670659</v>
-      </c>
-      <c r="D6">
-        <v>2.232188617770487</v>
-      </c>
-      <c r="E6">
-        <v>-0.2658772530134268</v>
-      </c>
-      <c r="F6">
-        <v>-0.2891883564264011</v>
-      </c>
-      <c r="G6">
-        <v>0.02995433728752106</v>
-      </c>
-      <c r="H6">
-        <v>1.934449739627937</v>
-      </c>
-      <c r="I6">
-        <v>1.12547608528242</v>
-      </c>
-      <c r="J6">
-        <v>1.015395910323341</v>
-      </c>
-      <c r="K6">
-        <v>0.9427264991470219</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7">
-        <v>2.136623637011471</v>
+        <v>0.403580940936124</v>
       </c>
       <c r="C7">
-        <v>-0.3995507079807878</v>
+        <v>-0.3111532411780611</v>
       </c>
       <c r="D7">
-        <v>-0.4153415911609659</v>
+        <v>-0.335809770286378</v>
       </c>
       <c r="E7">
-        <v>-0.09111314195834397</v>
+        <v>0.2812764175596489</v>
       </c>
       <c r="F7">
-        <v>1.81172241674292</v>
+        <v>0.2248772795407161</v>
       </c>
       <c r="G7">
-        <v>1.002323720616632</v>
+        <v>-0.408877163508937</v>
       </c>
       <c r="H7">
-        <v>0.8925468620085346</v>
+        <v>-0.5534800144449481</v>
       </c>
       <c r="I7">
-        <v>0.8198674948459739</v>
+        <v>2.687628020311716</v>
       </c>
       <c r="J7">
-        <v>0.3652474116730475</v>
+        <v>0.340606270700653</v>
       </c>
       <c r="K7">
-        <v>0.3938439809277354</v>
+        <v>0.1347976869486931</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -795,34 +660,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.07685514172901597</v>
+        <v>-0.2805177228845011</v>
       </c>
       <c r="C8">
-        <v>-0.02107490934273892</v>
+        <v>0.370070693075867</v>
       </c>
       <c r="D8">
-        <v>1.716085426006324</v>
+        <v>0.3267716395119979</v>
       </c>
       <c r="E8">
-        <v>0.9624685613762427</v>
+        <v>-0.3161450780547421</v>
       </c>
       <c r="F8">
-        <v>0.8560532527724727</v>
+        <v>-0.4582687054531251</v>
       </c>
       <c r="G8">
-        <v>0.77789100530955</v>
+        <v>2.782769375189893</v>
       </c>
       <c r="H8">
-        <v>0.3240575576188827</v>
+        <v>0.435516623471851</v>
       </c>
       <c r="I8">
-        <v>0.3529734851452444</v>
+        <v>0.2298095026345102</v>
       </c>
       <c r="J8">
-        <v>0.4196999664900911</v>
+        <v>0.1212427051580252</v>
       </c>
       <c r="K8">
-        <v>0.3693462914902568</v>
+        <v>2.709303868062695</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -830,34 +695,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1.751875903031814</v>
+        <v>0.449728430442164</v>
       </c>
       <c r="C9">
-        <v>1.032587498456717</v>
+        <v>-0.31385920244445</v>
       </c>
       <c r="D9">
-        <v>0.9323075194061827</v>
+        <v>-0.4828492335503543</v>
       </c>
       <c r="E9">
-        <v>0.852806869728693</v>
+        <v>2.790872972213508</v>
       </c>
       <c r="F9">
-        <v>0.3989643831107936</v>
+        <v>0.43305233109932</v>
       </c>
       <c r="G9">
-        <v>0.4277909294217004</v>
+        <v>0.2267344089800871</v>
       </c>
       <c r="H9">
-        <v>0.4945609679811671</v>
+        <v>0.1202137855764021</v>
       </c>
       <c r="I9">
-        <v>0.4442131231050528</v>
+        <v>2.70744158540011</v>
       </c>
       <c r="J9">
-        <v>0.8535917717023087</v>
+        <v>0.120663433191005</v>
       </c>
       <c r="K9">
-        <v>0.3721266669610499</v>
+        <v>0.09069270581100208</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -865,34 +730,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1.236508713534679</v>
+        <v>-0.9620548492805201</v>
       </c>
       <c r="C10">
-        <v>0.8511908857575459</v>
+        <v>2.403920875955682</v>
       </c>
       <c r="D10">
-        <v>0.3339404908521335</v>
+        <v>0.09303344235534605</v>
       </c>
       <c r="E10">
-        <v>0.3927456985813234</v>
+        <v>-0.1299579115936178</v>
       </c>
       <c r="F10">
-        <v>0.4572879135726722</v>
+        <v>-0.237646968752429</v>
       </c>
       <c r="G10">
-        <v>0.4056544969018057</v>
+        <v>2.351548022776704</v>
       </c>
       <c r="H10">
-        <v>0.8154127925394437</v>
+        <v>-0.2355729614388529</v>
       </c>
       <c r="I10">
-        <v>0.333947192149763</v>
+        <v>-0.26568879569974</v>
       </c>
       <c r="J10">
-        <v>0.4683320949034209</v>
+        <v>0.06480753738650513</v>
       </c>
       <c r="K10">
-        <v>0.7369448073161031</v>
+        <v>1.96745327024849</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -900,34 +765,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.2455009210634672</v>
+        <v>0.498921543612951</v>
       </c>
       <c r="C11">
-        <v>0.1883436630592354</v>
+        <v>-0.001277393677090011</v>
       </c>
       <c r="D11">
-        <v>0.2984210952825883</v>
+        <v>-0.3558557675505829</v>
       </c>
       <c r="E11">
-        <v>0.2393278539476089</v>
+        <v>2.320935225946103</v>
       </c>
       <c r="F11">
-        <v>0.6515813919389311</v>
+        <v>-0.2590956545602769</v>
       </c>
       <c r="G11">
-        <v>0.1694049554583316</v>
+        <v>-0.300513369073939</v>
       </c>
       <c r="H11">
-        <v>0.3040186003855151</v>
+        <v>0.03179972122205799</v>
       </c>
       <c r="I11">
-        <v>0.5725721547135221</v>
+        <v>1.935274461626681</v>
       </c>
       <c r="J11">
-        <v>0.07927540033036573</v>
+        <v>1.125084101579751</v>
       </c>
       <c r="K11">
-        <v>0.03022710229385572</v>
+        <v>1.01539481278146</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -935,34 +800,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.2537071001897339</v>
+        <v>-0.4514207483095989</v>
       </c>
       <c r="C12">
-        <v>0.2104306602693305</v>
+        <v>2.187261770978742</v>
       </c>
       <c r="D12">
-        <v>0.6274525642609426</v>
+        <v>-0.3852488892948418</v>
       </c>
       <c r="E12">
-        <v>0.1455387401134146</v>
+        <v>-0.421580848319804</v>
       </c>
       <c r="F12">
-        <v>0.2804004188513257</v>
+        <v>-0.09092760166295899</v>
       </c>
       <c r="G12">
-        <v>0.5489357494402969</v>
+        <v>1.812122096960893</v>
       </c>
       <c r="H12">
-        <v>0.05565576347416545</v>
+        <v>1.002235053264945</v>
       </c>
       <c r="I12">
-        <v>0.00660426500036515</v>
+        <v>0.8925358084804116</v>
       </c>
       <c r="J12">
-        <v>0.2407539267909443</v>
+        <v>0.8198757689847669</v>
       </c>
       <c r="K12">
-        <v>0.9283573745585176</v>
+        <v>0.3652466141521216</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -970,34 +835,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.7225772760483231</v>
+        <v>-0.04676243986289186</v>
       </c>
       <c r="C13">
-        <v>0.1893007963445753</v>
+        <v>-0.351542615704199</v>
       </c>
       <c r="D13">
-        <v>0.3381452467424164</v>
+        <v>-0.1865645923995553</v>
       </c>
       <c r="E13">
-        <v>0.603716576764518</v>
+        <v>1.772266937720504</v>
       </c>
       <c r="F13">
-        <v>0.1111138793206116</v>
+        <v>0.9657414440288827</v>
       </c>
       <c r="G13">
-        <v>0.06191071945530291</v>
+        <v>0.8505593189439877</v>
       </c>
       <c r="H13">
-        <v>0.2960940952221741</v>
+        <v>0.778685914930602</v>
       </c>
       <c r="I13">
-        <v>0.9836900069719408</v>
+        <v>0.3243761183696305</v>
       </c>
       <c r="J13">
-        <v>-0.593957220565665</v>
+        <v>0.3528423527838154</v>
       </c>
       <c r="K13">
-        <v>0.6044858134809817</v>
+        <v>0.4196981745998982</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1005,34 +870,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.3920951988496797</v>
+        <v>-0.1507741153740649</v>
       </c>
       <c r="C14">
-        <v>0.5514570866728734</v>
+        <v>1.842385874800978</v>
       </c>
       <c r="D14">
-        <v>0.09179643100824242</v>
+        <v>1.041995710662593</v>
       </c>
       <c r="E14">
-        <v>0.03544147618839999</v>
+        <v>0.9254751833631307</v>
       </c>
       <c r="F14">
-        <v>0.271432727960069</v>
+        <v>0.853592740422513</v>
       </c>
       <c r="G14">
-        <v>0.9586020518687802</v>
+        <v>0.3991935626460865</v>
       </c>
       <c r="H14">
-        <v>-0.6189414196534915</v>
+        <v>0.4277033542748914</v>
       </c>
       <c r="I14">
-        <v>0.5794767200618818</v>
+        <v>0.4945650062146942</v>
       </c>
       <c r="J14">
-        <v>0.7042923127601326</v>
+        <v>0.4442172166536797</v>
       </c>
       <c r="K14">
-        <v>0.4234840706870904</v>
+        <v>0.8535907631496527</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1040,34 +905,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.1180881657539883</v>
+        <v>1.346196904791089</v>
       </c>
       <c r="C15">
-        <v>0.01976742672920184</v>
+        <v>0.9238591993919836</v>
       </c>
       <c r="D15">
-        <v>0.2696286214033909</v>
+        <v>0.7885688481638529</v>
       </c>
       <c r="E15">
-        <v>0.9538234740452962</v>
+        <v>0.3641483318057095</v>
       </c>
       <c r="F15">
-        <v>-0.6229519315388955</v>
+        <v>0.3904302998663964</v>
       </c>
       <c r="G15">
-        <v>0.575284109662343</v>
+        <v>0.4560063800114471</v>
       </c>
       <c r="H15">
-        <v>0.7001445548382217</v>
+        <v>0.4060382374908147</v>
       </c>
       <c r="I15">
-        <v>0.4193254547713022</v>
+        <v>0.8154112883383657</v>
       </c>
       <c r="J15">
-        <v>2.000135231347048</v>
+        <v>0.3339254508661509</v>
       </c>
       <c r="K15">
-        <v>-0.05048652456893798</v>
+        <v>0.4683364358231579</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1075,34 +940,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.2444958115682418</v>
+        <v>0.7001292783751865</v>
       </c>
       <c r="C16">
-        <v>0.9388220312392042</v>
+        <v>0.1597462962836216</v>
       </c>
       <c r="D16">
-        <v>-0.6379621501590433</v>
+        <v>0.2315634815763126</v>
       </c>
       <c r="E16">
-        <v>0.5605656930622237</v>
+        <v>0.2896797370572504</v>
       </c>
       <c r="F16">
-        <v>0.6853895282656</v>
+        <v>0.2422068368903021</v>
       </c>
       <c r="G16">
-        <v>0.4045833609819696</v>
+        <v>0.6508690516469343</v>
       </c>
       <c r="H16">
-        <v>1.985390475910327</v>
+        <v>0.1696119563482451</v>
       </c>
       <c r="I16">
-        <v>-0.06523057740611693</v>
+        <v>0.3039637832205768</v>
       </c>
       <c r="J16">
-        <v>-0.1162792515132847</v>
+        <v>0.572587459570832</v>
       </c>
       <c r="K16">
-        <v>-0.1655445238429389</v>
+        <v>0.07927125506842592</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1110,34 +975,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-0.5837973756645536</v>
+        <v>0.1868494864834581</v>
       </c>
       <c r="C17">
-        <v>0.5679633782681194</v>
+        <v>0.260782543378972</v>
       </c>
       <c r="D17">
-        <v>0.7038552932798152</v>
+        <v>0.2180780092123137</v>
       </c>
       <c r="E17">
-        <v>0.4207990207140799</v>
+        <v>0.6270028363020174</v>
       </c>
       <c r="F17">
-        <v>2.0020859516837</v>
+        <v>0.1459937748140557</v>
       </c>
       <c r="G17">
-        <v>-0.04863586361525429</v>
+        <v>0.2803273779473516</v>
       </c>
       <c r="H17">
-        <v>-0.09966327803795372</v>
+        <v>0.5489678227146317</v>
       </c>
       <c r="I17">
-        <v>-0.1489330297341762</v>
+        <v>0.05564841777493534</v>
       </c>
       <c r="J17">
-        <v>1.20200289926206</v>
+        <v>0.006606762981235303</v>
       </c>
       <c r="K17">
-        <v>0.3156704549392173</v>
+        <v>0.2407532666083956</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1145,34 +1010,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.6832562133282594</v>
+        <v>0.3132027209996942</v>
       </c>
       <c r="C18">
-        <v>0.6513395151467358</v>
+        <v>0.6707648925331781</v>
       </c>
       <c r="D18">
-        <v>0.4074004165890073</v>
+        <v>0.2037386027051464</v>
       </c>
       <c r="E18">
-        <v>1.9808679531538</v>
+        <v>0.3351082052715727</v>
       </c>
       <c r="F18">
-        <v>-0.06821096346749778</v>
+        <v>0.6044259385610778</v>
       </c>
       <c r="G18">
-        <v>-0.1195778494652251</v>
+        <v>0.1109548722298731</v>
       </c>
       <c r="H18">
-        <v>-0.1687770655442112</v>
+        <v>0.0619469314124651</v>
       </c>
       <c r="I18">
-        <v>1.182144234268416</v>
+        <v>0.2960858990218187</v>
       </c>
       <c r="J18">
-        <v>0.2958148259702751</v>
+        <v>0.9836918665269868</v>
       </c>
       <c r="K18">
-        <v>0.08396207372115949</v>
+        <v>-0.5939576420717806</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1180,34 +1045,34 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.5791492005428169</v>
+        <v>0.2576885548124097</v>
       </c>
       <c r="C19">
-        <v>0.4238613392928928</v>
+        <v>0.2828487151799282</v>
       </c>
       <c r="D19">
-        <v>1.978145448386832</v>
+        <v>0.5851084902487087</v>
       </c>
       <c r="E19">
-        <v>-0.06722616548856164</v>
+        <v>0.08448562896297018</v>
       </c>
       <c r="F19">
-        <v>-0.1193326258104142</v>
+        <v>0.03728556415036</v>
       </c>
       <c r="G19">
-        <v>-0.1683858142398509</v>
+        <v>0.2709979439186582</v>
       </c>
       <c r="H19">
-        <v>1.182506588982339</v>
+        <v>0.9587076674391604</v>
       </c>
       <c r="I19">
-        <v>0.2961828897545296</v>
+        <v>-0.6189667354908805</v>
       </c>
       <c r="J19">
-        <v>0.08432901013641159</v>
+        <v>0.5794828242947559</v>
       </c>
       <c r="K19">
-        <v>0.08530586575918309</v>
+        <v>0.7042908447709926</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1215,34 +1080,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.3485288293144181</v>
+        <v>0.6114002249944546</v>
       </c>
       <c r="C20">
-        <v>1.893263790923973</v>
+        <v>0.06881157950377204</v>
       </c>
       <c r="D20">
-        <v>-0.1393922056948796</v>
+        <v>0.03548145759368193</v>
       </c>
       <c r="E20">
-        <v>-0.1935271501310974</v>
+        <v>0.2662193660951742</v>
       </c>
       <c r="F20">
-        <v>-0.2419417188583473</v>
+        <v>0.9546971555537563</v>
       </c>
       <c r="G20">
-        <v>1.10880958763326</v>
+        <v>-0.6231593458904193</v>
       </c>
       <c r="H20">
-        <v>0.2225220213172363</v>
+        <v>0.575335066372845</v>
       </c>
       <c r="I20">
-        <v>0.01065962235730145</v>
+        <v>0.7001322288552043</v>
       </c>
       <c r="J20">
-        <v>0.0116385490721248</v>
+        <v>0.4193284572631458</v>
       </c>
       <c r="K20">
-        <v>0.1081826259740305</v>
+        <v>2.000134502278861</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1250,34 +1115,34 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>1.937751311375422</v>
+        <v>0.01034864775853284</v>
       </c>
       <c r="C21">
-        <v>-0.1946914954062638</v>
+        <v>0.2512179232890821</v>
       </c>
       <c r="D21">
-        <v>-0.2155290366663459</v>
+        <v>0.9396869369336085</v>
       </c>
       <c r="E21">
-        <v>-0.2711020097460661</v>
+        <v>-0.6378777624905386</v>
       </c>
       <c r="F21">
-        <v>1.081564069184762</v>
+        <v>0.5605800398002233</v>
       </c>
       <c r="G21">
-        <v>0.194819310541832</v>
+        <v>0.6853901350658718</v>
       </c>
       <c r="H21">
-        <v>-0.01692736110257942</v>
+        <v>0.4045837018264252</v>
       </c>
       <c r="I21">
-        <v>-0.01597687544057691</v>
+        <v>1.985390449441682</v>
       </c>
       <c r="J21">
-        <v>0.08057430119843012</v>
+        <v>-0.06523056400492933</v>
       </c>
       <c r="K21">
-        <v>0.08070990240695997</v>
+        <v>-0.1162792540257258</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1285,34 +1150,34 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.1731083424599884</v>
+        <v>0.9938517114280983</v>
       </c>
       <c r="C22">
-        <v>-0.2595504559620161</v>
+        <v>-0.6304800772846429</v>
       </c>
       <c r="D22">
-        <v>-0.2996096923292247</v>
+        <v>0.5790458048144385</v>
       </c>
       <c r="E22">
-        <v>1.049559014342992</v>
+        <v>0.7016057947979821</v>
       </c>
       <c r="F22">
-        <v>0.1636019691515578</v>
+        <v>0.4212791775997977</v>
       </c>
       <c r="G22">
-        <v>-0.04832705007312732</v>
+        <v>2.001985163232544</v>
       </c>
       <c r="H22">
-        <v>-0.04733459448215649</v>
+        <v>-0.04861459052959838</v>
       </c>
       <c r="I22">
-        <v>0.04920675103012406</v>
+        <v>-0.09966775991696308</v>
       </c>
       <c r="J22">
-        <v>0.04934466090151512</v>
+        <v>-0.148932084911307</v>
       </c>
       <c r="K22">
-        <v>-0.7519954574612671</v>
+        <v>1.202002700123825</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1320,34 +1185,34 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.08094589933148177</v>
+        <v>-0.515187242224503</v>
       </c>
       <c r="C23">
-        <v>-0.4089829245631562</v>
+        <v>0.5265300266813591</v>
       </c>
       <c r="D23">
-        <v>1.056976333337126</v>
+        <v>0.6882071906729095</v>
       </c>
       <c r="E23">
-        <v>0.1467917694268529</v>
+        <v>0.4000611790698979</v>
       </c>
       <c r="F23">
-        <v>-0.05768040938222163</v>
+        <v>1.982410063380301</v>
       </c>
       <c r="G23">
-        <v>-0.05848805390843126</v>
+        <v>-0.06852916195686976</v>
       </c>
       <c r="H23">
-        <v>0.03855654996388036</v>
+        <v>-0.1195117957269981</v>
       </c>
       <c r="I23">
-        <v>0.03856575204667445</v>
+        <v>-0.1687907499049515</v>
       </c>
       <c r="J23">
-        <v>-0.7627396084740254</v>
+        <v>1.182147071154882</v>
       </c>
       <c r="K23">
-        <v>-0.7615937482064451</v>
+        <v>0.2958142379900641</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1355,34 +1220,34 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.2513425296929904</v>
+        <v>0.4543397120774402</v>
       </c>
       <c r="C24">
-        <v>1.028704394901028</v>
+        <v>0.7046681133767949</v>
       </c>
       <c r="D24">
-        <v>0.1560986491501518</v>
+        <v>0.3973386743029295</v>
       </c>
       <c r="E24">
-        <v>-0.05293548989079377</v>
+        <v>1.983394861359237</v>
       </c>
       <c r="F24">
-        <v>-0.05292697957280379</v>
+        <v>-0.06828393830205881</v>
       </c>
       <c r="G24">
-        <v>0.0435382052110469</v>
+        <v>-0.1191205444226378</v>
       </c>
       <c r="H24">
-        <v>0.04373449894115844</v>
+        <v>-0.1684283951910284</v>
       </c>
       <c r="I24">
-        <v>-0.7576056888267186</v>
+        <v>1.182515134939137</v>
       </c>
       <c r="J24">
-        <v>-0.7564539868836064</v>
+        <v>0.2961811744053162</v>
       </c>
       <c r="K24">
-        <v>-0.6535089281702675</v>
+        <v>0.08432935443201617</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1390,34 +1255,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.9778389946338424</v>
+        <v>0.6293356033983204</v>
       </c>
       <c r="C25">
-        <v>0.1366287495284449</v>
+        <v>0.3124570168400707</v>
       </c>
       <c r="D25">
-        <v>-0.06822100283606725</v>
+        <v>1.911228821152919</v>
       </c>
       <c r="E25">
-        <v>-0.07017530968052899</v>
+        <v>-0.1424784626227421</v>
       </c>
       <c r="F25">
-        <v>0.02650553909141562</v>
+        <v>-0.1926764490411341</v>
       </c>
       <c r="G25">
-        <v>0.02674618258842709</v>
+        <v>-0.2421253965401071</v>
       </c>
       <c r="H25">
-        <v>-0.7746147464165042</v>
+        <v>1.108854266501844</v>
       </c>
       <c r="I25">
-        <v>-0.773461104388653</v>
+        <v>0.2225117866262061</v>
       </c>
       <c r="J25">
-        <v>-0.6705152351149418</v>
+        <v>0.01066203774495789</v>
       </c>
       <c r="K25">
-        <v>-0.1741204589943213</v>
+        <v>0.01163798747038614</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1425,34 +1290,34 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.01509303936744111</v>
+        <v>0.3569445372915194</v>
       </c>
       <c r="C26">
-        <v>-0.1414099405381857</v>
+        <v>1.855929531441535</v>
       </c>
       <c r="D26">
-        <v>-0.06332017579648674</v>
+        <v>-0.1644803491579906</v>
       </c>
       <c r="E26">
-        <v>0.001138542734215209</v>
+        <v>-0.221836739928853</v>
       </c>
       <c r="F26">
-        <v>-0.007480636921345374</v>
+        <v>-0.2693709149886051</v>
       </c>
       <c r="G26">
-        <v>-0.8007886391317613</v>
+        <v>1.081151555726439</v>
       </c>
       <c r="H26">
-        <v>-0.799510594738874</v>
+        <v>0.1949248031663252</v>
       </c>
       <c r="I26">
-        <v>-0.6981657240822285</v>
+        <v>-0.01695338676774383</v>
       </c>
       <c r="J26">
-        <v>-0.2014773885124308</v>
+        <v>-0.01597033730521424</v>
       </c>
       <c r="K26">
-        <v>0.2962966211861695</v>
+        <v>0.08057267371388255</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1460,34 +1325,34 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0.005357099670473153</v>
+        <v>1.87751268438781</v>
       </c>
       <c r="C27">
-        <v>0.06753599328713344</v>
+        <v>-0.2085017684536608</v>
       </c>
       <c r="D27">
-        <v>-0.06099434535454784</v>
+        <v>-0.2503444225120116</v>
       </c>
       <c r="E27">
-        <v>-0.02994760574305189</v>
+        <v>-0.3013759698303754</v>
       </c>
       <c r="F27">
-        <v>-0.7936232569615915</v>
+        <v>1.049934214336165</v>
       </c>
       <c r="G27">
-        <v>-0.8056003930583759</v>
+        <v>0.1635251141957773</v>
       </c>
       <c r="H27">
-        <v>-0.7074466539681415</v>
+        <v>-0.04831110580932341</v>
       </c>
       <c r="I27">
-        <v>-0.2076017790465973</v>
+        <v>-0.0473378874735203</v>
       </c>
       <c r="J27">
-        <v>0.2901881189615265</v>
+        <v>0.04920743220843771</v>
       </c>
       <c r="K27">
-        <v>-0.3058520919286195</v>
+        <v>0.04934452007307266</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1495,34 +1360,34 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.2863248188760876</v>
+        <v>-0.02989721182312643</v>
       </c>
       <c r="C28">
-        <v>-0.1827075221900252</v>
+        <v>-0.3597176547459431</v>
       </c>
       <c r="D28">
-        <v>-0.1256839640822647</v>
+        <v>-0.293958650836241</v>
       </c>
       <c r="E28">
-        <v>-0.9383400983453423</v>
+        <v>1.03312401461146</v>
       </c>
       <c r="F28">
-        <v>-0.946725684277518</v>
+        <v>0.154171754886683</v>
       </c>
       <c r="G28">
-        <v>-0.8398339363362594</v>
+        <v>-0.05946456523559818</v>
       </c>
       <c r="H28">
-        <v>-0.3421950874579329</v>
+        <v>-0.057988088539764</v>
       </c>
       <c r="I28">
-        <v>0.15430878618849</v>
+        <v>0.03842852335359703</v>
       </c>
       <c r="J28">
-        <v>-0.4410878797796571</v>
+        <v>0.03860036906031428</v>
       </c>
       <c r="K28">
-        <v>-0.07673375111754099</v>
+        <v>-0.7627486640358622</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1530,34 +1395,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.5920498739046444</v>
+        <v>-0.2020772598757773</v>
       </c>
       <c r="C29">
-        <v>-0.1187892590051849</v>
+        <v>-0.3222305892723389</v>
       </c>
       <c r="D29">
-        <v>-0.8066751282757116</v>
+        <v>1.042430894334759</v>
       </c>
       <c r="E29">
-        <v>-0.9737809542713491</v>
+        <v>0.1589166743781109</v>
       </c>
       <c r="F29">
-        <v>-0.8709316185150218</v>
+        <v>-0.05390349089997071</v>
       </c>
       <c r="G29">
-        <v>-0.322986262205976</v>
+        <v>-0.05300643329259747</v>
       </c>
       <c r="H29">
-        <v>0.1639454446576458</v>
+        <v>0.04359727024808102</v>
       </c>
       <c r="I29">
-        <v>-0.4449833657489037</v>
+        <v>0.04373428870762108</v>
       </c>
       <c r="J29">
-        <v>-0.07480307373632955</v>
+        <v>-0.7576089027130235</v>
       </c>
       <c r="K29">
-        <v>0.3497146444983802</v>
+        <v>-0.7564537275186745</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1565,34 +1430,34 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.05733360117482567</v>
+        <v>-0.3730959895395247</v>
       </c>
       <c r="C30">
-        <v>-0.8731868743015987</v>
+        <v>1.022960994713052</v>
       </c>
       <c r="D30">
-        <v>-0.8582876453824433</v>
+        <v>0.1436311614328374</v>
       </c>
       <c r="E30">
-        <v>-0.7543444762476823</v>
+        <v>-0.0711518210076959</v>
       </c>
       <c r="F30">
-        <v>-0.260885433826836</v>
+        <v>-0.07003909941222874</v>
       </c>
       <c r="G30">
-        <v>0.2368470008185057</v>
+        <v>0.02660895389534967</v>
       </c>
       <c r="H30">
-        <v>-0.3579079153570042</v>
+        <v>0.02672523111783554</v>
       </c>
       <c r="I30">
-        <v>0.006103949419840715</v>
+        <v>-0.7746160202180701</v>
       </c>
       <c r="J30">
-        <v>0.4276015187548868</v>
+        <v>-0.7734600344633488</v>
       </c>
       <c r="K30">
-        <v>0.2781575408018784</v>
+        <v>-0.6705153388620859</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1600,34 +1465,34 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.5667275227190582</v>
+        <v>0.8712392058171663</v>
       </c>
       <c r="C31">
-        <v>-0.9411679552837471</v>
+        <v>0.07044222373071896</v>
       </c>
       <c r="D31">
-        <v>-0.8605153000107424</v>
+        <v>-0.06429668712365366</v>
       </c>
       <c r="E31">
-        <v>-0.3039451060329967</v>
+        <v>-0.09540609576942916</v>
       </c>
       <c r="F31">
-        <v>0.1947298762581822</v>
+        <v>-0.007617865614422792</v>
       </c>
       <c r="G31">
-        <v>-0.4101375115338847</v>
+        <v>0.0005513384025783719</v>
       </c>
       <c r="H31">
-        <v>-0.04580943798282133</v>
+        <v>-0.8006655105682911</v>
       </c>
       <c r="I31">
-        <v>0.3772852790458663</v>
+        <v>-0.8011105234306355</v>
       </c>
       <c r="J31">
-        <v>0.2277130087949474</v>
+        <v>-0.6978722683801954</v>
       </c>
       <c r="K31">
-        <v>0.281286860704294</v>
+        <v>-0.201221814647329</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1635,34 +1500,34 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>-1.087865203189742</v>
+        <v>0.2172092639393778</v>
       </c>
       <c r="C32">
-        <v>-0.9449396789845469</v>
+        <v>0.06655948195996653</v>
       </c>
       <c r="D32">
-        <v>-0.283601828373913</v>
+        <v>-0.1575389838581922</v>
       </c>
       <c r="E32">
-        <v>0.196667510605652</v>
+        <v>-0.0300848344361293</v>
       </c>
       <c r="F32">
-        <v>-0.4228831533056128</v>
+        <v>0.007716720572748192</v>
       </c>
       <c r="G32">
-        <v>-0.05446241108888816</v>
+        <v>-0.806755308887793</v>
       </c>
       <c r="H32">
-        <v>0.3705740827197463</v>
+        <v>-0.8103914533165485</v>
       </c>
       <c r="I32">
-        <v>0.2201999929922713</v>
+        <v>-0.7039966589143619</v>
       </c>
       <c r="J32">
-        <v>0.2735373090992323</v>
+        <v>-0.207330316871972</v>
       </c>
       <c r="K32">
-        <v>-0.05104296487933424</v>
+        <v>0.2894692505481743</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1670,34 +1535,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.8895934450056093</v>
+        <v>-0.2873013302032545</v>
       </c>
       <c r="C33">
-        <v>-0.4067284465720221</v>
+        <v>-0.2792521606936695</v>
       </c>
       <c r="D33">
-        <v>0.1886835612269308</v>
+        <v>-0.1258211927753421</v>
       </c>
       <c r="E33">
-        <v>-0.4095338268123987</v>
+        <v>-0.1370001208110025</v>
       </c>
       <c r="F33">
-        <v>-0.05487073186955682</v>
+        <v>-0.9478806001069351</v>
       </c>
       <c r="G33">
-        <v>0.3674169098225889</v>
+        <v>-0.9427787356846663</v>
       </c>
       <c r="H33">
-        <v>0.2188327296450223</v>
+        <v>-0.8385899673256976</v>
       </c>
       <c r="I33">
-        <v>0.2725331709462364</v>
+        <v>-0.3432096496450086</v>
       </c>
       <c r="J33">
-        <v>-0.05229938767360398</v>
+        <v>0.1542334626971367</v>
       </c>
       <c r="K33">
-        <v>0.2830816778414691</v>
+        <v>-0.4408695644289478</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1705,34 +1570,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.3715635136444516</v>
+        <v>-0.6885945124082887</v>
       </c>
       <c r="C34">
-        <v>0.1535251409344947</v>
+        <v>-0.1189264876982623</v>
       </c>
       <c r="D34">
-        <v>-0.3787274915688817</v>
+        <v>-0.005335150741371919</v>
       </c>
       <c r="E34">
-        <v>-0.01902831113771342</v>
+        <v>-0.9749358701007662</v>
       </c>
       <c r="F34">
-        <v>0.3980766167318615</v>
+        <v>-0.9738764178634287</v>
       </c>
       <c r="G34">
-        <v>0.2490921970613773</v>
+        <v>-0.8193811420737407</v>
       </c>
       <c r="H34">
-        <v>0.3032120312269969</v>
+        <v>-0.3335729911758527</v>
       </c>
       <c r="I34">
-        <v>-0.02158573734897595</v>
+        <v>0.1503379767278901</v>
       </c>
       <c r="J34">
-        <v>0.3137600204310593</v>
+        <v>-0.4389388870477363</v>
       </c>
       <c r="K34">
-        <v>0.4073055503731244</v>
+        <v>-0.07188046872481058</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1740,34 +1605,31 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0.3978800233787532</v>
+        <v>-0.05747082986790308</v>
       </c>
       <c r="C35">
-        <v>-0.5096886910384966</v>
+        <v>-0.07184689676725897</v>
       </c>
       <c r="D35">
-        <v>-0.09976801812117753</v>
+        <v>-0.8594425612118604</v>
       </c>
       <c r="E35">
-        <v>0.3499142055329315</v>
+        <v>-0.8572892755960893</v>
       </c>
       <c r="F35">
-        <v>0.1923922927489112</v>
+        <v>-0.7572803136946007</v>
       </c>
       <c r="G35">
-        <v>0.2441145864502094</v>
+        <v>-0.2606714350149928</v>
       </c>
       <c r="H35">
-        <v>-0.07954368195100681</v>
+        <v>0.2374134271197896</v>
       </c>
       <c r="I35">
-        <v>0.2559224128397721</v>
+        <v>-0.358031863891566</v>
       </c>
       <c r="J35">
-        <v>0.3493362371358765</v>
-      </c>
-      <c r="K35">
-        <v>-0.1335068715833578</v>
+        <v>0.006006405531696069</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1775,34 +1637,28 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.4316193217044243</v>
+        <v>0.2346124548152815</v>
       </c>
       <c r="C36">
-        <v>-0.05312587238374356</v>
+        <v>-0.9423228711131642</v>
       </c>
       <c r="D36">
-        <v>0.3566795851095967</v>
+        <v>-0.9634600993591493</v>
       </c>
       <c r="E36">
-        <v>0.207065851341262</v>
+        <v>-0.8003399859007614</v>
       </c>
       <c r="F36">
-        <v>0.2616595066606375</v>
+        <v>-0.3027885595753164</v>
       </c>
       <c r="G36">
-        <v>-0.06313535788947888</v>
+        <v>0.1851838309429091</v>
       </c>
       <c r="H36">
-        <v>0.2721829488653306</v>
+        <v>-0.4099452512942281</v>
       </c>
       <c r="I36">
-        <v>0.3657304637420177</v>
-      </c>
-      <c r="J36">
-        <v>-0.1171136666381989</v>
-      </c>
-      <c r="K36">
-        <v>-0.007525697356774663</v>
+        <v>-0.04430983417732448</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1810,34 +1666,25 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>-0.1122912858586644</v>
+        <v>-1.089020119019159</v>
       </c>
       <c r="C37">
-        <v>0.3447545960399119</v>
+        <v>-1.047884478332954</v>
       </c>
       <c r="D37">
-        <v>0.227751383870373</v>
+        <v>-0.7799967082416777</v>
       </c>
       <c r="E37">
-        <v>0.2766951351148101</v>
+        <v>-0.3008509252278465</v>
       </c>
       <c r="F37">
-        <v>-0.05009772688412406</v>
+        <v>0.172438189171181</v>
       </c>
       <c r="G37">
-        <v>0.2857684298912493</v>
+        <v>-0.4185982244002949</v>
       </c>
       <c r="H37">
-        <v>0.3794247071524067</v>
-      </c>
-      <c r="I37">
-        <v>-0.1034668313280579</v>
-      </c>
-      <c r="J37">
-        <v>0.006116413584839497</v>
-      </c>
-      <c r="K37">
-        <v>0.03527950257553258</v>
+        <v>-0.05102103050344442</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1845,34 +1692,22 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0.2910639859155906</v>
+        <v>-0.9925382443540163</v>
       </c>
       <c r="C38">
-        <v>0.1632992805275675</v>
+        <v>-0.9031233264397867</v>
       </c>
       <c r="D38">
-        <v>0.2326774114107624</v>
+        <v>-0.3088348746065678</v>
       </c>
       <c r="E38">
-        <v>-0.09647817572859507</v>
+        <v>0.1857875156643951</v>
       </c>
       <c r="F38">
-        <v>0.2372032256544119</v>
+        <v>-0.4190065451809636</v>
       </c>
       <c r="G38">
-        <v>0.3314989358053904</v>
-      </c>
-      <c r="H38">
-        <v>-0.151191763721542</v>
-      </c>
-      <c r="I38">
-        <v>-0.04171986294061492</v>
-      </c>
-      <c r="J38">
-        <v>-0.01257046961426211</v>
-      </c>
-      <c r="K38">
-        <v>-0.2112482302382686</v>
+        <v>-0.05417820340060187</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1880,31 +1715,19 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0.2439681181820851</v>
+        <v>-0.8679583935122163</v>
       </c>
       <c r="C39">
-        <v>0.2460476392559225</v>
+        <v>-0.3439932948990039</v>
       </c>
       <c r="D39">
-        <v>-0.1296041359861648</v>
+        <v>0.2165938509079121</v>
       </c>
       <c r="E39">
-        <v>0.2185130551731483</v>
+        <v>-0.3831641244491202</v>
       </c>
       <c r="F39">
-        <v>0.3180037334563132</v>
-      </c>
-      <c r="G39">
-        <v>-0.1672933114643393</v>
-      </c>
-      <c r="H39">
-        <v>-0.05829934505987588</v>
-      </c>
-      <c r="I39">
-        <v>-0.02872667203886481</v>
-      </c>
-      <c r="J39">
-        <v>-0.2273793871773302</v>
+        <v>-0.02351849649132931</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1912,28 +1735,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0.1769863131018627</v>
+        <v>-0.09963841245474536</v>
       </c>
       <c r="C40">
-        <v>-0.1471095185873648</v>
+        <v>0.08563265143829729</v>
       </c>
       <c r="D40">
-        <v>0.1619951315760313</v>
+        <v>-0.4639038314325843</v>
       </c>
       <c r="E40">
-        <v>0.2581544561876079</v>
-      </c>
-      <c r="F40">
-        <v>-0.2193826800192448</v>
-      </c>
-      <c r="G40">
-        <v>-0.1109082882268551</v>
-      </c>
-      <c r="H40">
-        <v>-0.08276098355462091</v>
-      </c>
-      <c r="I40">
-        <v>-0.2811122641411775</v>
+        <v>-0.07168090769025925</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1941,25 +1752,13 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.1631350120513026</v>
+        <v>0.1637020207723695</v>
       </c>
       <c r="C41">
-        <v>0.1559839361989813</v>
+        <v>-0.4172616856951503</v>
       </c>
       <c r="D41">
-        <v>0.2182565853642597</v>
-      </c>
-      <c r="E41">
-        <v>-0.258310573012756</v>
-      </c>
-      <c r="F41">
-        <v>-0.1429712114340882</v>
-      </c>
-      <c r="G41">
-        <v>-0.1156350758700901</v>
-      </c>
-      <c r="H41">
-        <v>-0.3153234992185813</v>
+        <v>-0.06491552811359402</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1967,22 +1766,10 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0.1101846028489047</v>
+        <v>-0.4764270991700712</v>
       </c>
       <c r="C42">
-        <v>0.233606398273979</v>
-      </c>
-      <c r="D42">
-        <v>-0.2104585808681099</v>
-      </c>
-      <c r="E42">
-        <v>-0.108132298083252</v>
-      </c>
-      <c r="F42">
-        <v>-0.08554729645327935</v>
-      </c>
-      <c r="G42">
-        <v>-0.2826178570748835</v>
+        <v>-0.07684051718327889</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1990,74 +1777,57 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.5197732891916149</v>
-      </c>
-      <c r="C43">
-        <v>-0.2505245903104478</v>
-      </c>
-      <c r="D43">
-        <v>-0.2102778516434502</v>
-      </c>
-      <c r="E43">
-        <v>-0.124539757784756</v>
-      </c>
-      <c r="F43">
-        <v>-0.3123192818844573</v>
+        <v>-0.1305311273076002</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B44">
-        <v>-0.2267575370288383</v>
-      </c>
-      <c r="C44">
-        <v>-0.05426431190252079</v>
-      </c>
-      <c r="D44">
-        <v>-0.07595150814512602</v>
-      </c>
-      <c r="E44">
-        <v>-0.2858075051821775</v>
-      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B45">
-        <v>-0.1046767183175807</v>
-      </c>
-      <c r="C45">
-        <v>-0.08657733350508284</v>
-      </c>
-      <c r="D45">
-        <v>-0.2473038116165672</v>
-      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B46">
-        <v>0.04486822346272668</v>
-      </c>
-      <c r="C46">
-        <v>-0.290606343338754</v>
-      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B47">
-        <v>-0.5174346182871943</v>
-      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/OPA/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/OPA/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Q0</t>
   </si>
@@ -44,21 +44,6 @@
   </si>
   <si>
     <t>Q9</t>
-  </si>
-  <si>
-    <t>2007-10-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2008-04-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2008-10-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2009-04-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2009-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2010-04-01 00:00:00_diff</t>
@@ -557,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -599,60 +584,210 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B2">
+        <v>0.403580940936124</v>
+      </c>
+      <c r="C2">
+        <v>-0.3111532411780611</v>
+      </c>
+      <c r="D2">
+        <v>-0.335809770286378</v>
+      </c>
+      <c r="E2">
+        <v>0.2812764175596489</v>
+      </c>
+      <c r="F2">
+        <v>0.2248772795407161</v>
+      </c>
+      <c r="G2">
+        <v>-0.408877163508937</v>
+      </c>
+      <c r="H2">
+        <v>-0.5534800144449481</v>
+      </c>
+      <c r="I2">
+        <v>2.687628020311716</v>
+      </c>
+      <c r="J2">
+        <v>0.340606270700653</v>
+      </c>
+      <c r="K2">
+        <v>0.1347976869486931</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B3">
+        <v>-0.2805177228845011</v>
+      </c>
+      <c r="C3">
+        <v>0.370070693075867</v>
+      </c>
+      <c r="D3">
+        <v>0.3267716395119979</v>
+      </c>
+      <c r="E3">
+        <v>-0.3161450780547421</v>
+      </c>
+      <c r="F3">
+        <v>-0.4582687054531251</v>
+      </c>
+      <c r="G3">
+        <v>2.782769375189893</v>
+      </c>
+      <c r="H3">
+        <v>0.435516623471851</v>
+      </c>
+      <c r="I3">
+        <v>0.2298095026345102</v>
+      </c>
+      <c r="J3">
+        <v>0.1212427051580252</v>
+      </c>
+      <c r="K3">
+        <v>2.709303868062695</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B4">
+        <v>0.449728430442164</v>
+      </c>
+      <c r="C4">
+        <v>-0.31385920244445</v>
+      </c>
+      <c r="D4">
+        <v>-0.4828492335503543</v>
+      </c>
+      <c r="E4">
+        <v>2.790872972213508</v>
+      </c>
+      <c r="F4">
+        <v>0.43305233109932</v>
+      </c>
+      <c r="G4">
+        <v>0.2267344089800871</v>
+      </c>
+      <c r="H4">
+        <v>0.1202137855764021</v>
+      </c>
+      <c r="I4">
+        <v>2.70744158540011</v>
+      </c>
+      <c r="J4">
+        <v>0.120663433191005</v>
+      </c>
+      <c r="K4">
+        <v>0.09069270581100208</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B5">
+        <v>-0.9620548492805201</v>
+      </c>
+      <c r="C5">
+        <v>2.403920875955682</v>
+      </c>
+      <c r="D5">
+        <v>0.09303344235534605</v>
+      </c>
+      <c r="E5">
+        <v>-0.1299579115936178</v>
+      </c>
+      <c r="F5">
+        <v>-0.237646968752429</v>
+      </c>
+      <c r="G5">
+        <v>2.351548022776704</v>
+      </c>
+      <c r="H5">
+        <v>-0.2355729614388529</v>
+      </c>
+      <c r="I5">
+        <v>-0.26568879569974</v>
+      </c>
+      <c r="J5">
+        <v>0.06480753738650513</v>
+      </c>
+      <c r="K5">
+        <v>1.96745327024849</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B6">
+        <v>0.498921543612951</v>
+      </c>
+      <c r="C6">
+        <v>-0.001277393677090011</v>
+      </c>
+      <c r="D6">
+        <v>-0.3558557675505829</v>
+      </c>
+      <c r="E6">
+        <v>2.320935225946103</v>
+      </c>
+      <c r="F6">
+        <v>-0.2590956545602769</v>
+      </c>
+      <c r="G6">
+        <v>-0.300513369073939</v>
+      </c>
+      <c r="H6">
+        <v>0.03179972122205799</v>
+      </c>
+      <c r="I6">
+        <v>1.935274461626681</v>
+      </c>
+      <c r="J6">
+        <v>1.125084101579751</v>
+      </c>
+      <c r="K6">
+        <v>1.01539481278146</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.403580940936124</v>
+        <v>-0.4514207483095989</v>
       </c>
       <c r="C7">
-        <v>-0.3111532411780611</v>
+        <v>2.187261770978742</v>
       </c>
       <c r="D7">
-        <v>-0.335809770286378</v>
+        <v>-0.3852488892948418</v>
       </c>
       <c r="E7">
-        <v>0.2812764175596489</v>
+        <v>-0.421580848319804</v>
       </c>
       <c r="F7">
-        <v>0.2248772795407161</v>
+        <v>-0.09092760166295899</v>
       </c>
       <c r="G7">
-        <v>-0.408877163508937</v>
+        <v>1.812122096960893</v>
       </c>
       <c r="H7">
-        <v>-0.5534800144449481</v>
+        <v>1.002235053264945</v>
       </c>
       <c r="I7">
-        <v>2.687628020311716</v>
+        <v>0.8925358084804116</v>
       </c>
       <c r="J7">
-        <v>0.340606270700653</v>
+        <v>0.8198757689847669</v>
       </c>
       <c r="K7">
-        <v>0.1347976869486931</v>
+        <v>0.3652466141521216</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -660,34 +795,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.2805177228845011</v>
+        <v>-0.04676243986289186</v>
       </c>
       <c r="C8">
-        <v>0.370070693075867</v>
+        <v>-0.351542615704199</v>
       </c>
       <c r="D8">
-        <v>0.3267716395119979</v>
+        <v>-0.1865645923995553</v>
       </c>
       <c r="E8">
-        <v>-0.3161450780547421</v>
+        <v>1.772266937720504</v>
       </c>
       <c r="F8">
-        <v>-0.4582687054531251</v>
+        <v>0.9657414440288827</v>
       </c>
       <c r="G8">
-        <v>2.782769375189893</v>
+        <v>0.8505593189439877</v>
       </c>
       <c r="H8">
-        <v>0.435516623471851</v>
+        <v>0.778685914930602</v>
       </c>
       <c r="I8">
-        <v>0.2298095026345102</v>
+        <v>0.3243761183696305</v>
       </c>
       <c r="J8">
-        <v>0.1212427051580252</v>
+        <v>0.3528423527838154</v>
       </c>
       <c r="K8">
-        <v>2.709303868062695</v>
+        <v>0.4196981745998982</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -695,34 +830,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.449728430442164</v>
+        <v>-0.1507741153740649</v>
       </c>
       <c r="C9">
-        <v>-0.31385920244445</v>
+        <v>1.842385874800978</v>
       </c>
       <c r="D9">
-        <v>-0.4828492335503543</v>
+        <v>1.041995710662593</v>
       </c>
       <c r="E9">
-        <v>2.790872972213508</v>
+        <v>0.9254751833631307</v>
       </c>
       <c r="F9">
-        <v>0.43305233109932</v>
+        <v>0.853592740422513</v>
       </c>
       <c r="G9">
-        <v>0.2267344089800871</v>
+        <v>0.3991935626460865</v>
       </c>
       <c r="H9">
-        <v>0.1202137855764021</v>
+        <v>0.4277033542748914</v>
       </c>
       <c r="I9">
-        <v>2.70744158540011</v>
+        <v>0.4945650062146942</v>
       </c>
       <c r="J9">
-        <v>0.120663433191005</v>
+        <v>0.4442172166536797</v>
       </c>
       <c r="K9">
-        <v>0.09069270581100208</v>
+        <v>0.8535907631496527</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -730,34 +865,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.9620548492805201</v>
+        <v>1.346196904791089</v>
       </c>
       <c r="C10">
-        <v>2.403920875955682</v>
+        <v>0.9238591993919836</v>
       </c>
       <c r="D10">
-        <v>0.09303344235534605</v>
+        <v>0.7885688481638529</v>
       </c>
       <c r="E10">
-        <v>-0.1299579115936178</v>
+        <v>0.3641483318057095</v>
       </c>
       <c r="F10">
-        <v>-0.237646968752429</v>
+        <v>0.3904302998663964</v>
       </c>
       <c r="G10">
-        <v>2.351548022776704</v>
+        <v>0.4560063800114471</v>
       </c>
       <c r="H10">
-        <v>-0.2355729614388529</v>
+        <v>0.4060382374908147</v>
       </c>
       <c r="I10">
-        <v>-0.26568879569974</v>
+        <v>0.8154112883383657</v>
       </c>
       <c r="J10">
-        <v>0.06480753738650513</v>
+        <v>0.3339254508661509</v>
       </c>
       <c r="K10">
-        <v>1.96745327024849</v>
+        <v>0.4683364358231579</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -765,34 +900,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.498921543612951</v>
+        <v>0.7001292783751865</v>
       </c>
       <c r="C11">
-        <v>-0.001277393677090011</v>
+        <v>0.1597462962836216</v>
       </c>
       <c r="D11">
-        <v>-0.3558557675505829</v>
+        <v>0.2315634815763126</v>
       </c>
       <c r="E11">
-        <v>2.320935225946103</v>
+        <v>0.2896797370572504</v>
       </c>
       <c r="F11">
-        <v>-0.2590956545602769</v>
+        <v>0.2422068368903021</v>
       </c>
       <c r="G11">
-        <v>-0.300513369073939</v>
+        <v>0.6508690516469343</v>
       </c>
       <c r="H11">
-        <v>0.03179972122205799</v>
+        <v>0.1696119563482451</v>
       </c>
       <c r="I11">
-        <v>1.935274461626681</v>
+        <v>0.3039637832205768</v>
       </c>
       <c r="J11">
-        <v>1.125084101579751</v>
+        <v>0.572587459570832</v>
       </c>
       <c r="K11">
-        <v>1.01539481278146</v>
+        <v>0.07927125506842592</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -800,34 +935,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.4514207483095989</v>
+        <v>0.1868494864834581</v>
       </c>
       <c r="C12">
-        <v>2.187261770978742</v>
+        <v>0.260782543378972</v>
       </c>
       <c r="D12">
-        <v>-0.3852488892948418</v>
+        <v>0.2180780092123137</v>
       </c>
       <c r="E12">
-        <v>-0.421580848319804</v>
+        <v>0.6270028363020174</v>
       </c>
       <c r="F12">
-        <v>-0.09092760166295899</v>
+        <v>0.1459937748140557</v>
       </c>
       <c r="G12">
-        <v>1.812122096960893</v>
+        <v>0.2803273779473516</v>
       </c>
       <c r="H12">
-        <v>1.002235053264945</v>
+        <v>0.5489678227146317</v>
       </c>
       <c r="I12">
-        <v>0.8925358084804116</v>
+        <v>0.05564841777493534</v>
       </c>
       <c r="J12">
-        <v>0.8198757689847669</v>
+        <v>0.006606762981235303</v>
       </c>
       <c r="K12">
-        <v>0.3652466141521216</v>
+        <v>0.2407532666083956</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -835,34 +970,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.04676243986289186</v>
+        <v>0.3132027209996942</v>
       </c>
       <c r="C13">
-        <v>-0.351542615704199</v>
+        <v>0.6707648925331781</v>
       </c>
       <c r="D13">
-        <v>-0.1865645923995553</v>
+        <v>0.2037386027051464</v>
       </c>
       <c r="E13">
-        <v>1.772266937720504</v>
+        <v>0.3351082052715727</v>
       </c>
       <c r="F13">
-        <v>0.9657414440288827</v>
+        <v>0.6044259385610778</v>
       </c>
       <c r="G13">
-        <v>0.8505593189439877</v>
+        <v>0.1109548722298731</v>
       </c>
       <c r="H13">
-        <v>0.778685914930602</v>
+        <v>0.0619469314124651</v>
       </c>
       <c r="I13">
-        <v>0.3243761183696305</v>
+        <v>0.2960858990218187</v>
       </c>
       <c r="J13">
-        <v>0.3528423527838154</v>
+        <v>0.9836918665269868</v>
       </c>
       <c r="K13">
-        <v>0.4196981745998982</v>
+        <v>-0.5939576420717806</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -870,34 +1005,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.1507741153740649</v>
+        <v>0.2576885548124097</v>
       </c>
       <c r="C14">
-        <v>1.842385874800978</v>
+        <v>0.2828487151799282</v>
       </c>
       <c r="D14">
-        <v>1.041995710662593</v>
+        <v>0.5851084902487087</v>
       </c>
       <c r="E14">
-        <v>0.9254751833631307</v>
+        <v>0.08448562896297018</v>
       </c>
       <c r="F14">
-        <v>0.853592740422513</v>
+        <v>0.03728556415036</v>
       </c>
       <c r="G14">
-        <v>0.3991935626460865</v>
+        <v>0.2709979439186582</v>
       </c>
       <c r="H14">
-        <v>0.4277033542748914</v>
+        <v>0.9587076674391604</v>
       </c>
       <c r="I14">
-        <v>0.4945650062146942</v>
+        <v>-0.6189667354908805</v>
       </c>
       <c r="J14">
-        <v>0.4442172166536797</v>
+        <v>0.5794828242947559</v>
       </c>
       <c r="K14">
-        <v>0.8535907631496527</v>
+        <v>0.7042908447709926</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -905,34 +1040,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>1.346196904791089</v>
+        <v>0.6114002249944546</v>
       </c>
       <c r="C15">
-        <v>0.9238591993919836</v>
+        <v>0.06881157950377204</v>
       </c>
       <c r="D15">
-        <v>0.7885688481638529</v>
+        <v>0.03548145759368193</v>
       </c>
       <c r="E15">
-        <v>0.3641483318057095</v>
+        <v>0.2662193660951742</v>
       </c>
       <c r="F15">
-        <v>0.3904302998663964</v>
+        <v>0.9546971555537563</v>
       </c>
       <c r="G15">
-        <v>0.4560063800114471</v>
+        <v>-0.6231593458904193</v>
       </c>
       <c r="H15">
-        <v>0.4060382374908147</v>
+        <v>0.575335066372845</v>
       </c>
       <c r="I15">
-        <v>0.8154112883383657</v>
+        <v>0.7001322288552043</v>
       </c>
       <c r="J15">
-        <v>0.3339254508661509</v>
+        <v>0.4193284572631458</v>
       </c>
       <c r="K15">
-        <v>0.4683364358231579</v>
+        <v>2.000134502278861</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -940,34 +1075,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.7001292783751865</v>
+        <v>0.01034864775853284</v>
       </c>
       <c r="C16">
-        <v>0.1597462962836216</v>
+        <v>0.2512179232890821</v>
       </c>
       <c r="D16">
-        <v>0.2315634815763126</v>
+        <v>0.9396869369336085</v>
       </c>
       <c r="E16">
-        <v>0.2896797370572504</v>
+        <v>-0.6378777624905386</v>
       </c>
       <c r="F16">
-        <v>0.2422068368903021</v>
+        <v>0.5605800398002233</v>
       </c>
       <c r="G16">
-        <v>0.6508690516469343</v>
+        <v>0.6853901350658718</v>
       </c>
       <c r="H16">
-        <v>0.1696119563482451</v>
+        <v>0.4045837018264252</v>
       </c>
       <c r="I16">
-        <v>0.3039637832205768</v>
+        <v>1.985390449441682</v>
       </c>
       <c r="J16">
-        <v>0.572587459570832</v>
+        <v>-0.06523056400492933</v>
       </c>
       <c r="K16">
-        <v>0.07927125506842592</v>
+        <v>-0.1162792540257258</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -975,34 +1110,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.1868494864834581</v>
+        <v>0.9938517114280983</v>
       </c>
       <c r="C17">
-        <v>0.260782543378972</v>
+        <v>-0.6304800772846429</v>
       </c>
       <c r="D17">
-        <v>0.2180780092123137</v>
+        <v>0.5790458048144385</v>
       </c>
       <c r="E17">
-        <v>0.6270028363020174</v>
+        <v>0.7016057947979821</v>
       </c>
       <c r="F17">
-        <v>0.1459937748140557</v>
+        <v>0.4212791775997977</v>
       </c>
       <c r="G17">
-        <v>0.2803273779473516</v>
+        <v>2.001985163232544</v>
       </c>
       <c r="H17">
-        <v>0.5489678227146317</v>
+        <v>-0.04861459052959838</v>
       </c>
       <c r="I17">
-        <v>0.05564841777493534</v>
+        <v>-0.09966775991696308</v>
       </c>
       <c r="J17">
-        <v>0.006606762981235303</v>
+        <v>-0.148932084911307</v>
       </c>
       <c r="K17">
-        <v>0.2407532666083956</v>
+        <v>1.202002700123825</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1010,34 +1145,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.3132027209996942</v>
+        <v>-0.515187242224503</v>
       </c>
       <c r="C18">
-        <v>0.6707648925331781</v>
+        <v>0.5265300266813591</v>
       </c>
       <c r="D18">
-        <v>0.2037386027051464</v>
+        <v>0.6882071906729095</v>
       </c>
       <c r="E18">
-        <v>0.3351082052715727</v>
+        <v>0.4000611790698979</v>
       </c>
       <c r="F18">
-        <v>0.6044259385610778</v>
+        <v>1.982410063380301</v>
       </c>
       <c r="G18">
-        <v>0.1109548722298731</v>
+        <v>-0.06852916195686976</v>
       </c>
       <c r="H18">
-        <v>0.0619469314124651</v>
+        <v>-0.1195117957269981</v>
       </c>
       <c r="I18">
-        <v>0.2960858990218187</v>
+        <v>-0.1687907499049515</v>
       </c>
       <c r="J18">
-        <v>0.9836918665269868</v>
+        <v>1.182147071154882</v>
       </c>
       <c r="K18">
-        <v>-0.5939576420717806</v>
+        <v>0.2958142379900641</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1045,34 +1180,34 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.2576885548124097</v>
+        <v>0.4543397120774402</v>
       </c>
       <c r="C19">
-        <v>0.2828487151799282</v>
+        <v>0.7046681133767949</v>
       </c>
       <c r="D19">
-        <v>0.5851084902487087</v>
+        <v>0.3973386743029295</v>
       </c>
       <c r="E19">
-        <v>0.08448562896297018</v>
+        <v>1.983394861359237</v>
       </c>
       <c r="F19">
-        <v>0.03728556415036</v>
+        <v>-0.06828393830205881</v>
       </c>
       <c r="G19">
-        <v>0.2709979439186582</v>
+        <v>-0.1191205444226378</v>
       </c>
       <c r="H19">
-        <v>0.9587076674391604</v>
+        <v>-0.1684283951910284</v>
       </c>
       <c r="I19">
-        <v>-0.6189667354908805</v>
+        <v>1.182515134939137</v>
       </c>
       <c r="J19">
-        <v>0.5794828242947559</v>
+        <v>0.2961811744053162</v>
       </c>
       <c r="K19">
-        <v>0.7042908447709926</v>
+        <v>-0.9965310878451409</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1080,34 +1215,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.6114002249944546</v>
+        <v>0.6293356033983204</v>
       </c>
       <c r="C20">
-        <v>0.06881157950377204</v>
+        <v>0.3124570168400707</v>
       </c>
       <c r="D20">
-        <v>0.03548145759368193</v>
+        <v>1.911228821152919</v>
       </c>
       <c r="E20">
-        <v>0.2662193660951742</v>
+        <v>-0.1424784626227421</v>
       </c>
       <c r="F20">
-        <v>0.9546971555537563</v>
+        <v>-0.1926764490411341</v>
       </c>
       <c r="G20">
-        <v>-0.6231593458904193</v>
+        <v>-0.2421253965401071</v>
       </c>
       <c r="H20">
-        <v>0.575335066372845</v>
+        <v>1.108854266501844</v>
       </c>
       <c r="I20">
-        <v>0.7001322288552043</v>
+        <v>0.2225117866262061</v>
       </c>
       <c r="J20">
-        <v>0.4193284572631458</v>
+        <v>-1.070198404532199</v>
       </c>
       <c r="K20">
-        <v>2.000134502278861</v>
+        <v>0.2197263700649538</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1115,34 +1250,34 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.01034864775853284</v>
+        <v>0.3569445372915194</v>
       </c>
       <c r="C21">
-        <v>0.2512179232890821</v>
+        <v>1.855929531441535</v>
       </c>
       <c r="D21">
-        <v>0.9396869369336085</v>
+        <v>-0.1644803491579906</v>
       </c>
       <c r="E21">
-        <v>-0.6378777624905386</v>
+        <v>-0.221836739928853</v>
       </c>
       <c r="F21">
-        <v>0.5605800398002233</v>
+        <v>-0.2693709149886051</v>
       </c>
       <c r="G21">
-        <v>0.6853901350658718</v>
+        <v>1.081151555726439</v>
       </c>
       <c r="H21">
-        <v>0.4045837018264252</v>
+        <v>0.1949248031663252</v>
       </c>
       <c r="I21">
-        <v>1.985390449441682</v>
+        <v>-1.097813829044901</v>
       </c>
       <c r="J21">
-        <v>-0.06523056400492933</v>
+        <v>0.1921180452893534</v>
       </c>
       <c r="K21">
-        <v>-0.1162792540257258</v>
+        <v>2.401311969856544</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1150,34 +1285,34 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.9938517114280983</v>
+        <v>1.87751268438781</v>
       </c>
       <c r="C22">
-        <v>-0.6304800772846429</v>
+        <v>-0.2085017684536608</v>
       </c>
       <c r="D22">
-        <v>0.5790458048144385</v>
+        <v>-0.2503444225120116</v>
       </c>
       <c r="E22">
-        <v>0.7016057947979821</v>
+        <v>-0.3013759698303754</v>
       </c>
       <c r="F22">
-        <v>0.4212791775997977</v>
+        <v>1.049934214336165</v>
       </c>
       <c r="G22">
-        <v>2.001985163232544</v>
+        <v>0.1635251141957773</v>
       </c>
       <c r="H22">
-        <v>-0.04861459052959838</v>
+        <v>-1.129171548086481</v>
       </c>
       <c r="I22">
-        <v>-0.09966775991696308</v>
+        <v>0.1607504951210473</v>
       </c>
       <c r="J22">
-        <v>-0.148932084911307</v>
+        <v>2.369946728351099</v>
       </c>
       <c r="K22">
-        <v>1.202002700123825</v>
+        <v>-0.5358432472321131</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1185,34 +1320,34 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.515187242224503</v>
+        <v>-0.02989721182312643</v>
       </c>
       <c r="C23">
-        <v>0.5265300266813591</v>
+        <v>-0.3597176547459431</v>
       </c>
       <c r="D23">
-        <v>0.6882071906729095</v>
+        <v>-0.293958650836241</v>
       </c>
       <c r="E23">
-        <v>0.4000611790698979</v>
+        <v>1.03312401461146</v>
       </c>
       <c r="F23">
-        <v>1.982410063380301</v>
+        <v>0.154171754886683</v>
       </c>
       <c r="G23">
-        <v>-0.06852916195686976</v>
+        <v>-1.140325007512755</v>
       </c>
       <c r="H23">
-        <v>-0.1195117957269981</v>
+        <v>0.1501002940548036</v>
       </c>
       <c r="I23">
-        <v>-0.1687907499049515</v>
+        <v>2.359167819496259</v>
       </c>
       <c r="J23">
-        <v>1.182147071154882</v>
+        <v>-0.5465873982448715</v>
       </c>
       <c r="K23">
-        <v>0.2958142379900641</v>
+        <v>-0.1869192466142749</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1220,34 +1355,34 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.4543397120774402</v>
+        <v>-0.2020772598757773</v>
       </c>
       <c r="C24">
-        <v>0.7046681133767949</v>
+        <v>-0.3222305892723389</v>
       </c>
       <c r="D24">
-        <v>0.3973386743029295</v>
+        <v>1.042430894334759</v>
       </c>
       <c r="E24">
-        <v>1.983394861359237</v>
+        <v>0.1589166743781109</v>
       </c>
       <c r="F24">
-        <v>-0.06828393830205881</v>
+        <v>-1.134763933177128</v>
       </c>
       <c r="G24">
-        <v>-0.1191205444226378</v>
+        <v>0.1550819493019702</v>
       </c>
       <c r="H24">
-        <v>-0.1684283951910284</v>
+        <v>2.364336566390743</v>
       </c>
       <c r="I24">
-        <v>1.182515134939137</v>
+        <v>-0.5414534785975647</v>
       </c>
       <c r="J24">
-        <v>0.2961811744053162</v>
+        <v>-0.1817794852914363</v>
       </c>
       <c r="K24">
-        <v>0.08432935443201617</v>
+        <v>-0.5796195455161515</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1255,34 +1390,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.6293356033983204</v>
+        <v>-0.3730959895395247</v>
       </c>
       <c r="C25">
-        <v>0.3124570168400707</v>
+        <v>1.022960994713052</v>
       </c>
       <c r="D25">
-        <v>1.911228821152919</v>
+        <v>0.1436311614328374</v>
       </c>
       <c r="E25">
-        <v>-0.1424784626227421</v>
+        <v>-1.152012263284853</v>
       </c>
       <c r="F25">
-        <v>-0.1926764490411341</v>
+        <v>0.1380492831823389</v>
       </c>
       <c r="G25">
-        <v>-0.2421253965401071</v>
+        <v>2.347348250038011</v>
       </c>
       <c r="H25">
-        <v>1.108854266501844</v>
+        <v>-0.5584625361873502</v>
       </c>
       <c r="I25">
-        <v>0.2225117866262061</v>
+        <v>-0.1987866027964829</v>
       </c>
       <c r="J25">
-        <v>0.01066203774495789</v>
+        <v>-0.5966258524608258</v>
       </c>
       <c r="K25">
-        <v>0.01163798747038614</v>
+        <v>2.864028826778269</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1290,34 +1425,34 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0.3569445372915194</v>
+        <v>0.8712392058171663</v>
       </c>
       <c r="C26">
-        <v>1.855929531441535</v>
+        <v>0.07044222373071896</v>
       </c>
       <c r="D26">
-        <v>-0.1644803491579906</v>
+        <v>-1.145157129400811</v>
       </c>
       <c r="E26">
-        <v>-0.221836739928853</v>
+        <v>0.1126822868251385</v>
       </c>
       <c r="F26">
-        <v>-0.2693709149886051</v>
+        <v>2.313121430528239</v>
       </c>
       <c r="G26">
-        <v>1.081151555726439</v>
+        <v>-0.5846364289026074</v>
       </c>
       <c r="H26">
-        <v>0.1949248031663252</v>
+        <v>-0.2248360931467038</v>
       </c>
       <c r="I26">
-        <v>-0.01695338676774383</v>
+        <v>-0.6242763414281125</v>
       </c>
       <c r="J26">
-        <v>-0.01597033730521424</v>
+        <v>2.836671897260159</v>
       </c>
       <c r="K26">
-        <v>0.08057267371388255</v>
+        <v>-0.09325553272458675</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1325,34 +1460,34 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>1.87751268438781</v>
+        <v>0.2172092639393778</v>
       </c>
       <c r="C27">
-        <v>-0.2085017684536608</v>
+        <v>-1.014300960317191</v>
       </c>
       <c r="D27">
-        <v>-0.2503444225120116</v>
+        <v>0.05054939873637543</v>
       </c>
       <c r="E27">
-        <v>-0.3013759698303754</v>
+        <v>2.290654461706533</v>
       </c>
       <c r="F27">
-        <v>1.049934214336165</v>
+        <v>-0.5774710467324375</v>
       </c>
       <c r="G27">
-        <v>0.1635251141957773</v>
+        <v>-0.2309258914662058</v>
       </c>
       <c r="H27">
-        <v>-0.04831110580932341</v>
+        <v>-0.6335572713140255</v>
       </c>
       <c r="I27">
-        <v>-0.0473378874735203</v>
+        <v>2.830547506725993</v>
       </c>
       <c r="J27">
-        <v>0.04920743220843771</v>
+        <v>-0.09936403494922974</v>
       </c>
       <c r="K27">
-        <v>0.04934452007307266</v>
+        <v>-0.3366532538269008</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1360,34 +1495,34 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.02989721182312643</v>
+        <v>0.02879603875287606</v>
       </c>
       <c r="C28">
-        <v>-0.3597176547459431</v>
+        <v>-0.1843789271901158</v>
       </c>
       <c r="D28">
-        <v>-0.293958650836241</v>
+        <v>1.88184457257166</v>
       </c>
       <c r="E28">
-        <v>1.03312401461146</v>
+        <v>-0.585408647263563</v>
       </c>
       <c r="F28">
-        <v>0.154171754886683</v>
+        <v>-0.2513572582699968</v>
       </c>
       <c r="G28">
-        <v>-0.05946456523559818</v>
+        <v>-0.7671136733923192</v>
       </c>
       <c r="H28">
-        <v>-0.057988088539764</v>
+        <v>2.718216303874546</v>
       </c>
       <c r="I28">
-        <v>0.03842852335359703</v>
+        <v>-0.1829095495659359</v>
       </c>
       <c r="J28">
-        <v>0.03860036906031428</v>
+        <v>-0.4306570567108013</v>
       </c>
       <c r="K28">
-        <v>-0.7627486640358622</v>
+        <v>-0.1114638882535338</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1395,34 +1530,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.2020772598757773</v>
+        <v>-0.2514683343874932</v>
       </c>
       <c r="C29">
-        <v>-0.3222305892723389</v>
+        <v>1.893764994274214</v>
       </c>
       <c r="D29">
-        <v>1.042430894334759</v>
+        <v>-0.5916776229021217</v>
       </c>
       <c r="E29">
-        <v>0.1589166743781109</v>
+        <v>-0.2910854099172243</v>
       </c>
       <c r="F29">
-        <v>-0.05390349089997071</v>
+        <v>-0.7897117712230285</v>
       </c>
       <c r="G29">
-        <v>-0.05300643329259747</v>
+        <v>2.704846110944878</v>
       </c>
       <c r="H29">
-        <v>0.04359727024808102</v>
+        <v>-0.2047422032137549</v>
       </c>
       <c r="I29">
-        <v>0.04373428870762108</v>
+        <v>-0.4540295233891949</v>
       </c>
       <c r="J29">
-        <v>-0.7576089027130235</v>
+        <v>-0.1315960660194073</v>
       </c>
       <c r="K29">
-        <v>-0.7564537275186745</v>
+        <v>0.4360738009025408</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1430,34 +1565,34 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.3730959895395247</v>
+        <v>1.766514371344666</v>
       </c>
       <c r="C30">
-        <v>1.022960994713052</v>
+        <v>-0.6505653440819277</v>
       </c>
       <c r="D30">
-        <v>0.1436311614328374</v>
+        <v>-0.2574562015584198</v>
       </c>
       <c r="E30">
-        <v>-0.0711518210076959</v>
+        <v>-0.812316825994174</v>
       </c>
       <c r="F30">
-        <v>-0.07003909941222874</v>
+        <v>2.670992923920687</v>
       </c>
       <c r="G30">
-        <v>0.02660895389534967</v>
+        <v>-0.2157412759260359</v>
       </c>
       <c r="H30">
-        <v>0.02672523111783554</v>
+        <v>-0.468374088300765</v>
       </c>
       <c r="I30">
-        <v>-0.7746160202180701</v>
+        <v>-0.1527491987615514</v>
       </c>
       <c r="J30">
-        <v>-0.7734600344633488</v>
+        <v>0.4179966905148733</v>
       </c>
       <c r="K30">
-        <v>-0.6705153388620859</v>
+        <v>0.1334295621652165</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1465,34 +1600,34 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>0.8712392058171663</v>
+        <v>-0.3326399654149629</v>
       </c>
       <c r="C31">
-        <v>0.07044222373071896</v>
+        <v>-0.005742245235980992</v>
       </c>
       <c r="D31">
-        <v>-0.06429668712365366</v>
+        <v>-0.8140539499914856</v>
       </c>
       <c r="E31">
-        <v>-0.09540609576942916</v>
+        <v>2.700041267407023</v>
       </c>
       <c r="F31">
-        <v>-0.007617865614422792</v>
+        <v>-0.1703197982651861</v>
       </c>
       <c r="G31">
-        <v>0.0005513384025783719</v>
+        <v>-0.4225140705467433</v>
       </c>
       <c r="H31">
-        <v>-0.8006655105682911</v>
+        <v>-0.1047186864660358</v>
       </c>
       <c r="I31">
-        <v>-0.8011105234306355</v>
+        <v>0.4624375798080561</v>
       </c>
       <c r="J31">
-        <v>-0.6978722683801954</v>
+        <v>0.1771352038429113</v>
       </c>
       <c r="K31">
-        <v>-0.201221814647329</v>
+        <v>0.2983282457437391</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1500,34 +1635,34 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0.2172092639393778</v>
+        <v>0.1541836496370652</v>
       </c>
       <c r="C32">
-        <v>0.06655948195996653</v>
+        <v>-0.8937686632045507</v>
       </c>
       <c r="D32">
-        <v>-0.1575389838581922</v>
+        <v>2.644746965094949</v>
       </c>
       <c r="E32">
-        <v>-0.0300848344361293</v>
+        <v>-0.1805027126792367</v>
       </c>
       <c r="F32">
-        <v>0.007716720572748192</v>
+        <v>-0.4372087151019811</v>
       </c>
       <c r="G32">
-        <v>-0.806755308887793</v>
+        <v>-0.1280500589740727</v>
       </c>
       <c r="H32">
-        <v>-0.8103914533165485</v>
+        <v>0.4401738861181967</v>
       </c>
       <c r="I32">
-        <v>-0.7039966589143619</v>
+        <v>0.1565035726346987</v>
       </c>
       <c r="J32">
-        <v>-0.207330316871972</v>
+        <v>0.2774227408567833</v>
       </c>
       <c r="K32">
-        <v>0.2894692505481743</v>
+        <v>-0.1566163007467146</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1535,34 +1670,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.2873013302032545</v>
+        <v>-0.8224011610391728</v>
       </c>
       <c r="C33">
-        <v>-0.2792521606936695</v>
+        <v>2.665376403706007</v>
       </c>
       <c r="D33">
-        <v>-0.1258211927753421</v>
+        <v>-0.2209184853385633</v>
       </c>
       <c r="E33">
-        <v>-0.1370001208110025</v>
+        <v>-0.4626241767782244</v>
       </c>
       <c r="F33">
-        <v>-0.9478806001069351</v>
+        <v>-0.1414474277960456</v>
       </c>
       <c r="G33">
-        <v>-0.9427787356846663</v>
+        <v>0.4230514449977618</v>
       </c>
       <c r="H33">
-        <v>-0.8385899673256976</v>
+        <v>0.1373274159244197</v>
       </c>
       <c r="I33">
-        <v>-0.3432096496450086</v>
+        <v>0.2590684512739367</v>
       </c>
       <c r="J33">
-        <v>0.1542334626971367</v>
+        <v>-0.174651771969606</v>
       </c>
       <c r="K33">
-        <v>-0.4408695644289478</v>
+        <v>1.711237692813722</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1570,34 +1705,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.6885945124082887</v>
+        <v>2.645528944591264</v>
       </c>
       <c r="C34">
-        <v>-0.1189264876982623</v>
+        <v>-0.2807246382387178</v>
       </c>
       <c r="D34">
-        <v>-0.005335150741371919</v>
+        <v>-0.4352825660458595</v>
       </c>
       <c r="E34">
-        <v>-0.9749358701007662</v>
+        <v>-0.1143722785502272</v>
       </c>
       <c r="F34">
-        <v>-0.9738764178634287</v>
+        <v>0.4413258896632414</v>
       </c>
       <c r="G34">
-        <v>-0.8193811420737407</v>
+        <v>0.156062448381683</v>
       </c>
       <c r="H34">
-        <v>-0.3335729911758527</v>
+        <v>0.2786710459850015</v>
       </c>
       <c r="I34">
-        <v>0.1503379767278901</v>
+        <v>-0.1551383786645085</v>
       </c>
       <c r="J34">
-        <v>-0.4389388870477363</v>
+        <v>1.7306676872633</v>
       </c>
       <c r="K34">
-        <v>-0.07188046872481058</v>
+        <v>0.02712539099298039</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1605,31 +1740,34 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.05747082986790308</v>
+        <v>-0.05709892479459167</v>
       </c>
       <c r="C35">
-        <v>-0.07184689676725897</v>
+        <v>-0.2104082567439512</v>
       </c>
       <c r="D35">
-        <v>-0.8594425612118604</v>
+        <v>-0.2030240563678619</v>
       </c>
       <c r="E35">
-        <v>-0.8572892755960893</v>
+        <v>0.3841172408923286</v>
       </c>
       <c r="F35">
-        <v>-0.7572803136946007</v>
+        <v>0.1298829291283504</v>
       </c>
       <c r="G35">
-        <v>-0.2606714350149928</v>
+        <v>0.2459547464637277</v>
       </c>
       <c r="H35">
-        <v>0.2374134271197896</v>
+        <v>-0.1905783614438532</v>
       </c>
       <c r="I35">
-        <v>-0.358031863891566</v>
+        <v>1.696210795422407</v>
       </c>
       <c r="J35">
-        <v>0.006006405531696069</v>
+        <v>-0.007133569119063266</v>
+      </c>
+      <c r="K35">
+        <v>-0.06283537361453317</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1637,28 +1775,34 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0.2346124548152815</v>
+        <v>-0.3923508660366146</v>
       </c>
       <c r="C36">
-        <v>-0.9423228711131642</v>
+        <v>-0.133982500241012</v>
       </c>
       <c r="D36">
-        <v>-0.9634600993591493</v>
+        <v>0.4478230000580024</v>
       </c>
       <c r="E36">
-        <v>-0.8003399859007614</v>
+        <v>0.1661016994257549</v>
       </c>
       <c r="F36">
-        <v>-0.3027885595753164</v>
+        <v>0.286089767034939</v>
       </c>
       <c r="G36">
-        <v>0.1851838309429091</v>
+        <v>-0.147834711107181</v>
       </c>
       <c r="H36">
-        <v>-0.4099452512942281</v>
+        <v>1.738217297652115</v>
       </c>
       <c r="I36">
-        <v>-0.04430983417732448</v>
+        <v>0.03466652825609873</v>
+      </c>
+      <c r="J36">
+        <v>-0.02093057154779088</v>
+      </c>
+      <c r="K36">
+        <v>0.7660196976982002</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1666,25 +1810,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>-1.089020119019159</v>
+        <v>-0.168265082464471</v>
       </c>
       <c r="C37">
-        <v>-1.047884478332954</v>
+        <v>0.4105050081906778</v>
       </c>
       <c r="D37">
-        <v>-0.7799967082416777</v>
+        <v>0.1609725331888229</v>
       </c>
       <c r="E37">
-        <v>-0.3008509252278465</v>
+        <v>0.2792193346544706</v>
       </c>
       <c r="F37">
-        <v>0.172438189171181</v>
+        <v>-0.1570097917730597</v>
       </c>
       <c r="G37">
-        <v>-0.4185982244002949</v>
+        <v>1.72931139059963</v>
       </c>
       <c r="H37">
-        <v>-0.05102103050344442</v>
+        <v>0.02591680038344368</v>
+      </c>
+      <c r="I37">
+        <v>-0.02970964828548739</v>
+      </c>
+      <c r="J37">
+        <v>0.7572306895911085</v>
+      </c>
+      <c r="K37">
+        <v>-1.432462660852938</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1692,22 +1845,34 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.9925382443540163</v>
+        <v>0.39512947507756</v>
       </c>
       <c r="C38">
-        <v>-0.9031233264397867</v>
+        <v>0.146253976083984</v>
       </c>
       <c r="D38">
-        <v>-0.3088348746065678</v>
+        <v>0.2780269733212851</v>
       </c>
       <c r="E38">
-        <v>0.1857875156643951</v>
+        <v>-0.1591683466935491</v>
       </c>
       <c r="F38">
-        <v>-0.4190065451809636</v>
+        <v>1.726219314636006</v>
       </c>
       <c r="G38">
-        <v>-0.05417820340060187</v>
+        <v>0.02295927749404569</v>
+      </c>
+      <c r="H38">
+        <v>-0.03260736609987014</v>
+      </c>
+      <c r="I38">
+        <v>0.7543190012329473</v>
+      </c>
+      <c r="J38">
+        <v>-1.435377817888983</v>
+      </c>
+      <c r="K38">
+        <v>-0.5973850467680275</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1715,19 +1880,31 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.8679583935122163</v>
+        <v>0.115560997487881</v>
       </c>
       <c r="C39">
-        <v>-0.3439932948990039</v>
+        <v>0.2765936279083825</v>
       </c>
       <c r="D39">
-        <v>0.2165938509079121</v>
+        <v>-0.2172760536378607</v>
       </c>
       <c r="E39">
-        <v>-0.3831641244491202</v>
+        <v>1.668907032202049</v>
       </c>
       <c r="F39">
-        <v>-0.02351849649132931</v>
+        <v>-0.02622991995100654</v>
+      </c>
+      <c r="G39">
+        <v>-0.08266741693889357</v>
+      </c>
+      <c r="H39">
+        <v>0.7031824516265733</v>
+      </c>
+      <c r="I39">
+        <v>-1.486288598561842</v>
+      </c>
+      <c r="J39">
+        <v>-0.6481649351273808</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1735,16 +1912,28 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.09963841245474536</v>
+        <v>0.5359355951119682</v>
       </c>
       <c r="C40">
-        <v>0.08563265143829729</v>
+        <v>-0.2711559980576975</v>
       </c>
       <c r="D40">
-        <v>-0.4639038314325843</v>
+        <v>1.58631346425551</v>
       </c>
       <c r="E40">
-        <v>-0.07168090769025925</v>
+        <v>-0.0537492915814165</v>
+      </c>
+      <c r="F40">
+        <v>-0.1113118617446668</v>
+      </c>
+      <c r="G40">
+        <v>0.6655474948774812</v>
+      </c>
+      <c r="H40">
+        <v>-1.52278187720135</v>
+      </c>
+      <c r="I40">
+        <v>-0.6832965564733813</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1752,13 +1941,25 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0.1637020207723695</v>
+        <v>-0.1665223345836818</v>
       </c>
       <c r="C41">
-        <v>-0.4172616856951503</v>
+        <v>1.627645361895555</v>
       </c>
       <c r="D41">
-        <v>-0.06491552811359402</v>
+        <v>-0.1247009769169733</v>
+      </c>
+      <c r="E41">
+        <v>-0.1577116240065802</v>
+      </c>
+      <c r="F41">
+        <v>0.6377251098286494</v>
+      </c>
+      <c r="G41">
+        <v>-1.557271939622133</v>
+      </c>
+      <c r="H41">
+        <v>-0.7206576040393557</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1766,10 +1967,22 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>-0.4764270991700712</v>
+        <v>1.585714629532179</v>
       </c>
       <c r="C42">
-        <v>-0.07684051718327889</v>
+        <v>-0.1791337698295616</v>
+      </c>
+      <c r="D42">
+        <v>-0.1662474533849169</v>
+      </c>
+      <c r="E42">
+        <v>0.6268456329453159</v>
+      </c>
+      <c r="F42">
+        <v>-1.577711085321278</v>
+      </c>
+      <c r="G42">
+        <v>-0.7395619196011086</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1777,57 +1990,74 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.1305311273076002</v>
+        <v>-0.07333147080576552</v>
+      </c>
+      <c r="C43">
+        <v>0.09503732750387861</v>
+      </c>
+      <c r="D43">
+        <v>0.5851032189595478</v>
+      </c>
+      <c r="E43">
+        <v>-1.624655780883618</v>
+      </c>
+      <c r="F43">
+        <v>-0.7339092107648495</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B44">
+        <v>-0.3218529964004583</v>
+      </c>
+      <c r="C44">
+        <v>0.6368128457965307</v>
+      </c>
+      <c r="D44">
+        <v>-1.504858401926996</v>
+      </c>
+      <c r="E44">
+        <v>-0.7009482333013772</v>
+      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B45">
+        <v>0.637266957365716</v>
+      </c>
+      <c r="C45">
+        <v>-1.559762857212156</v>
+      </c>
+      <c r="D45">
+        <v>-0.6942026542417883</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B46">
+        <v>-1.547299918072776</v>
+      </c>
+      <c r="C46">
+        <v>-0.5792474248617906</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B47">
+        <v>-0.6549187353269011</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/OPA/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/OPA/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -605,15 +605,6 @@
       <c r="H2">
         <v>-0.5534800144449481</v>
       </c>
-      <c r="I2">
-        <v>2.687628020311716</v>
-      </c>
-      <c r="J2">
-        <v>0.340606270700653</v>
-      </c>
-      <c r="K2">
-        <v>0.1347976869486931</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
@@ -634,21 +625,6 @@
       <c r="F3">
         <v>-0.4582687054531251</v>
       </c>
-      <c r="G3">
-        <v>2.782769375189893</v>
-      </c>
-      <c r="H3">
-        <v>0.435516623471851</v>
-      </c>
-      <c r="I3">
-        <v>0.2298095026345102</v>
-      </c>
-      <c r="J3">
-        <v>0.1212427051580252</v>
-      </c>
-      <c r="K3">
-        <v>2.709303868062695</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
@@ -675,15 +651,6 @@
       <c r="H4">
         <v>0.1202137855764021</v>
       </c>
-      <c r="I4">
-        <v>2.70744158540011</v>
-      </c>
-      <c r="J4">
-        <v>0.120663433191005</v>
-      </c>
-      <c r="K4">
-        <v>0.09069270581100208</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
@@ -704,21 +671,6 @@
       <c r="F5">
         <v>-0.237646968752429</v>
       </c>
-      <c r="G5">
-        <v>2.351548022776704</v>
-      </c>
-      <c r="H5">
-        <v>-0.2355729614388529</v>
-      </c>
-      <c r="I5">
-        <v>-0.26568879569974</v>
-      </c>
-      <c r="J5">
-        <v>0.06480753738650513</v>
-      </c>
-      <c r="K5">
-        <v>1.96745327024849</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
@@ -745,15 +697,6 @@
       <c r="H6">
         <v>0.03179972122205799</v>
       </c>
-      <c r="I6">
-        <v>1.935274461626681</v>
-      </c>
-      <c r="J6">
-        <v>1.125084101579751</v>
-      </c>
-      <c r="K6">
-        <v>1.01539481278146</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
@@ -774,21 +717,6 @@
       <c r="F7">
         <v>-0.09092760166295899</v>
       </c>
-      <c r="G7">
-        <v>1.812122096960893</v>
-      </c>
-      <c r="H7">
-        <v>1.002235053264945</v>
-      </c>
-      <c r="I7">
-        <v>0.8925358084804116</v>
-      </c>
-      <c r="J7">
-        <v>0.8198757689847669</v>
-      </c>
-      <c r="K7">
-        <v>0.3652466141521216</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
@@ -815,15 +743,6 @@
       <c r="H8">
         <v>0.778685914930602</v>
       </c>
-      <c r="I8">
-        <v>0.3243761183696305</v>
-      </c>
-      <c r="J8">
-        <v>0.3528423527838154</v>
-      </c>
-      <c r="K8">
-        <v>0.4196981745998982</v>
-      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
@@ -844,21 +763,6 @@
       <c r="F9">
         <v>0.853592740422513</v>
       </c>
-      <c r="G9">
-        <v>0.3991935626460865</v>
-      </c>
-      <c r="H9">
-        <v>0.4277033542748914</v>
-      </c>
-      <c r="I9">
-        <v>0.4945650062146942</v>
-      </c>
-      <c r="J9">
-        <v>0.4442172166536797</v>
-      </c>
-      <c r="K9">
-        <v>0.8535907631496527</v>
-      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
@@ -885,15 +789,6 @@
       <c r="H10">
         <v>0.4060382374908147</v>
       </c>
-      <c r="I10">
-        <v>0.8154112883383657</v>
-      </c>
-      <c r="J10">
-        <v>0.3339254508661509</v>
-      </c>
-      <c r="K10">
-        <v>0.4683364358231579</v>
-      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
@@ -914,21 +809,6 @@
       <c r="F11">
         <v>0.2422068368903021</v>
       </c>
-      <c r="G11">
-        <v>0.6508690516469343</v>
-      </c>
-      <c r="H11">
-        <v>0.1696119563482451</v>
-      </c>
-      <c r="I11">
-        <v>0.3039637832205768</v>
-      </c>
-      <c r="J11">
-        <v>0.572587459570832</v>
-      </c>
-      <c r="K11">
-        <v>0.07927125506842592</v>
-      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
@@ -955,15 +835,6 @@
       <c r="H12">
         <v>0.5489678227146317</v>
       </c>
-      <c r="I12">
-        <v>0.05564841777493534</v>
-      </c>
-      <c r="J12">
-        <v>0.006606762981235303</v>
-      </c>
-      <c r="K12">
-        <v>0.2407532666083956</v>
-      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
@@ -996,9 +867,6 @@
       <c r="J13">
         <v>0.9836918665269868</v>
       </c>
-      <c r="K13">
-        <v>-0.5939576420717806</v>
-      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -1025,15 +893,6 @@
       <c r="H14">
         <v>0.9587076674391604</v>
       </c>
-      <c r="I14">
-        <v>-0.6189667354908805</v>
-      </c>
-      <c r="J14">
-        <v>0.5794828242947559</v>
-      </c>
-      <c r="K14">
-        <v>0.7042908447709926</v>
-      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -1066,9 +925,6 @@
       <c r="J15">
         <v>0.4193284572631458</v>
       </c>
-      <c r="K15">
-        <v>2.000134502278861</v>
-      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -1095,15 +951,6 @@
       <c r="H16">
         <v>0.4045837018264252</v>
       </c>
-      <c r="I16">
-        <v>1.985390449441682</v>
-      </c>
-      <c r="J16">
-        <v>-0.06523056400492933</v>
-      </c>
-      <c r="K16">
-        <v>-0.1162792540257258</v>
-      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
@@ -1136,9 +983,6 @@
       <c r="J17">
         <v>-0.148932084911307</v>
       </c>
-      <c r="K17">
-        <v>1.202002700123825</v>
-      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
@@ -1168,12 +1012,6 @@
       <c r="I18">
         <v>-0.1687907499049515</v>
       </c>
-      <c r="J18">
-        <v>1.182147071154882</v>
-      </c>
-      <c r="K18">
-        <v>0.2958142379900641</v>
-      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
@@ -1200,15 +1038,6 @@
       <c r="H19">
         <v>-0.1684283951910284</v>
       </c>
-      <c r="I19">
-        <v>1.182515134939137</v>
-      </c>
-      <c r="J19">
-        <v>0.2961811744053162</v>
-      </c>
-      <c r="K19">
-        <v>-0.9965310878451409</v>
-      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
@@ -1276,9 +1105,6 @@
       <c r="J21">
         <v>0.1921180452893534</v>
       </c>
-      <c r="K21">
-        <v>2.401311969856544</v>
-      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
@@ -1308,12 +1134,6 @@
       <c r="I22">
         <v>0.1607504951210473</v>
       </c>
-      <c r="J22">
-        <v>2.369946728351099</v>
-      </c>
-      <c r="K22">
-        <v>-0.5358432472321131</v>
-      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -1340,15 +1160,6 @@
       <c r="H23">
         <v>0.1501002940548036</v>
       </c>
-      <c r="I23">
-        <v>2.359167819496259</v>
-      </c>
-      <c r="J23">
-        <v>-0.5465873982448715</v>
-      </c>
-      <c r="K23">
-        <v>-0.1869192466142749</v>
-      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
@@ -1416,9 +1227,6 @@
       <c r="J25">
         <v>-0.5966258524608258</v>
       </c>
-      <c r="K25">
-        <v>2.864028826778269</v>
-      </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
@@ -1448,12 +1256,6 @@
       <c r="I26">
         <v>-0.6242763414281125</v>
       </c>
-      <c r="J26">
-        <v>2.836671897260159</v>
-      </c>
-      <c r="K26">
-        <v>-0.09325553272458675</v>
-      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
@@ -1480,15 +1282,6 @@
       <c r="H27">
         <v>-0.6335572713140255</v>
       </c>
-      <c r="I27">
-        <v>2.830547506725993</v>
-      </c>
-      <c r="J27">
-        <v>-0.09936403494922974</v>
-      </c>
-      <c r="K27">
-        <v>-0.3366532538269008</v>
-      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
@@ -1556,9 +1349,6 @@
       <c r="J29">
         <v>-0.1315960660194073</v>
       </c>
-      <c r="K29">
-        <v>0.4360738009025408</v>
-      </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
@@ -1588,12 +1378,6 @@
       <c r="I30">
         <v>-0.1527491987615514</v>
       </c>
-      <c r="J30">
-        <v>0.4179966905148733</v>
-      </c>
-      <c r="K30">
-        <v>0.1334295621652165</v>
-      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
@@ -1620,15 +1404,6 @@
       <c r="H31">
         <v>-0.1047186864660358</v>
       </c>
-      <c r="I31">
-        <v>0.4624375798080561</v>
-      </c>
-      <c r="J31">
-        <v>0.1771352038429113</v>
-      </c>
-      <c r="K31">
-        <v>0.2983282457437391</v>
-      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
@@ -1696,9 +1471,6 @@
       <c r="J33">
         <v>-0.174651771969606</v>
       </c>
-      <c r="K33">
-        <v>1.711237692813722</v>
-      </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
@@ -1728,12 +1500,6 @@
       <c r="I34">
         <v>-0.1551383786645085</v>
       </c>
-      <c r="J34">
-        <v>1.7306676872633</v>
-      </c>
-      <c r="K34">
-        <v>0.02712539099298039</v>
-      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
@@ -1760,15 +1526,6 @@
       <c r="H35">
         <v>-0.1905783614438532</v>
       </c>
-      <c r="I35">
-        <v>1.696210795422407</v>
-      </c>
-      <c r="J35">
-        <v>-0.007133569119063266</v>
-      </c>
-      <c r="K35">
-        <v>-0.06283537361453317</v>
-      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
@@ -1836,9 +1593,6 @@
       <c r="J37">
         <v>0.7572306895911085</v>
       </c>
-      <c r="K37">
-        <v>-1.432462660852938</v>
-      </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
@@ -1868,12 +1622,6 @@
       <c r="I38">
         <v>0.7543190012329473</v>
       </c>
-      <c r="J38">
-        <v>-1.435377817888983</v>
-      </c>
-      <c r="K38">
-        <v>-0.5973850467680275</v>
-      </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
@@ -1899,12 +1647,6 @@
       </c>
       <c r="H39">
         <v>0.7031824516265733</v>
-      </c>
-      <c r="I39">
-        <v>-1.486288598561842</v>
-      </c>
-      <c r="J39">
-        <v>-0.6481649351273808</v>
       </c>
     </row>
     <row r="40" spans="1:11">
